--- a/tests/integration_test_files/decision_1_v2.xlsx
+++ b/tests/integration_test_files/decision_1_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15F4B78-B42B-0A43-8EED-CBC1ADB74480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2F14D8-3F94-B545-9313-DCFF00117B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="5" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -5338,7 +5338,7 @@
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tests/integration_test_files/decision_1_v2.xlsx
+++ b/tests/integration_test_files/decision_1_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2F14D8-3F94-B545-9313-DCFF00117B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B68538C-80D3-AE40-84CF-9639B84F6A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="5" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="20840" yWindow="1920" windowWidth="33600" windowHeight="19460" firstSheet="5" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -1714,18 +1714,12 @@
     <t>label</t>
   </si>
   <si>
-    <t xml:space="preserve">from </t>
-  </si>
-  <si>
     <t>to</t>
   </si>
   <si>
     <t>timingValue</t>
   </si>
   <si>
-    <t>tofrom</t>
-  </si>
-  <si>
     <t>window</t>
   </si>
   <si>
@@ -1790,9 +1784,6 @@
   </si>
   <si>
     <t>FIXED</t>
-  </si>
-  <si>
-    <t>0..4 hours</t>
   </si>
   <si>
     <t>1 Day</t>
@@ -1854,6 +1845,15 @@
   <si>
     <t>DOSE: if major rash, 
 D14: If minor rash</t>
+  </si>
+  <si>
+    <t>-4..0 hours</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>toFrom</t>
   </si>
 </sst>
 </file>
@@ -2010,17 +2010,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3445,7 +3445,7 @@
         <v>207</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>195</v>
@@ -4995,23 +4995,23 @@
       <c r="A1" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
@@ -5028,76 +5028,76 @@
       <c r="A4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
@@ -5164,16 +5164,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5334,7 +5334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
@@ -5363,22 +5363,22 @@
         <v>471</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -5395,16 +5395,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>219</v>
@@ -5421,7 +5421,7 @@
         <v>543</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5430,10 +5430,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>219</v>
@@ -5445,59 +5445,59 @@
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="C5" s="17" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="C6" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="31" t="s">
-        <v>590</v>
+      <c r="H6" s="28" t="s">
+        <v>587</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -5505,7 +5505,7 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="17" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5527,7 +5527,7 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>204</v>
@@ -5621,8 +5621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5E3869-2369-5644-A00D-6AA078FB1D13}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5647,155 +5647,155 @@
         <v>46</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>546</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F3" t="s">
         <v>561</v>
-      </c>
-      <c r="B3" t="s">
-        <v>583</v>
-      </c>
-      <c r="C3" t="s">
-        <v>585</v>
-      </c>
-      <c r="D3" t="s">
-        <v>550</v>
-      </c>
-      <c r="E3" t="s">
-        <v>562</v>
-      </c>
-      <c r="F3" t="s">
-        <v>563</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>560</v>
-      </c>
-      <c r="I3" t="s">
-        <v>570</v>
+        <v>558</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B5" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D5" t="s">
+        <v>569</v>
+      </c>
+      <c r="E5" t="s">
+        <v>575</v>
+      </c>
+      <c r="F5" t="s">
+        <v>561</v>
+      </c>
+      <c r="G5" t="s">
         <v>572</v>
       </c>
-      <c r="E5" t="s">
-        <v>578</v>
-      </c>
-      <c r="F5" t="s">
-        <v>563</v>
-      </c>
-      <c r="G5" t="s">
-        <v>575</v>
-      </c>
       <c r="H5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C6" t="s">
         <v>219</v>
       </c>
       <c r="D6" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E6" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/decision_1_v2.xlsx
+++ b/tests/integration_test_files/decision_1_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B68538C-80D3-AE40-84CF-9639B84F6A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F0FCBA-2D9D-A249-8C76-D705439C6764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20840" yWindow="1920" windowWidth="33600" windowHeight="19460" firstSheet="5" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="72140" yWindow="1220" windowWidth="33600" windowHeight="19460" firstSheet="5" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="590">
   <si>
     <t>Screening</t>
   </si>
@@ -1802,9 +1802,6 @@
   </si>
   <si>
     <t>-1..1 days</t>
-  </si>
-  <si>
-    <t>D35</t>
   </si>
   <si>
     <t>D14</t>
@@ -2017,10 +2014,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5017,34 +5014,34 @@
       <c r="A3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
@@ -5164,16 +5161,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5372,10 +5369,10 @@
         <v>561</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>554</v>
@@ -5404,7 +5401,7 @@
         <v>571</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>219</v>
@@ -5433,7 +5430,7 @@
         <v>571</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>219</v>
@@ -5457,7 +5454,7 @@
         <v>556</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>556</v>
@@ -5475,16 +5472,16 @@
         <v>561</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>554</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -5497,7 +5494,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="28" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -5622,7 +5619,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5647,7 +5644,7 @@
         <v>46</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>544</v>
@@ -5656,7 +5653,7 @@
         <v>545</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>546</v>
@@ -5667,7 +5664,7 @@
         <v>547</v>
       </c>
       <c r="B2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -5693,10 +5690,10 @@
         <v>559</v>
       </c>
       <c r="B3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D3" t="s">
         <v>548</v>
@@ -5714,7 +5711,7 @@
         <v>558</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5722,7 +5719,7 @@
         <v>564</v>
       </c>
       <c r="B4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C4" t="s">
         <v>563</v>
@@ -5745,7 +5742,7 @@
         <v>565</v>
       </c>
       <c r="B5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C5" t="s">
         <v>571</v>
@@ -5754,7 +5751,7 @@
         <v>569</v>
       </c>
       <c r="E5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F5" t="s">
         <v>561</v>
@@ -5774,7 +5771,7 @@
         <v>566</v>
       </c>
       <c r="B6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C6" t="s">
         <v>219</v>
@@ -5783,13 +5780,13 @@
         <v>569</v>
       </c>
       <c r="E6" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="F6" t="s">
+        <v>561</v>
+      </c>
+      <c r="G6" t="s">
         <v>575</v>
-      </c>
-      <c r="G6" t="s">
-        <v>576</v>
       </c>
       <c r="H6" t="s">
         <v>558</v>

--- a/tests/integration_test_files/decision_1_v2.xlsx
+++ b/tests/integration_test_files/decision_1_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F0FCBA-2D9D-A249-8C76-D705439C6764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F870F1-4E9A-334D-BCD3-B31D1F11680D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72140" yWindow="1220" windowWidth="33600" windowHeight="19460" firstSheet="5" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="68800" yWindow="1220" windowWidth="33600" windowHeight="19460" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="587">
   <si>
     <t>Screening</t>
   </si>
@@ -129,9 +129,6 @@
     <t>NCT12345678</t>
   </si>
   <si>
-    <t>Simple Test 1</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
@@ -462,12 +459,6 @@
     <t>protocolVersion</t>
   </si>
   <si>
-    <t>protocolAmendment</t>
-  </si>
-  <si>
-    <t>protocolEffectiveDate</t>
-  </si>
-  <si>
     <t>protocolStatus</t>
   </si>
   <si>
@@ -480,16 +471,10 @@
     <t>Something Public</t>
   </si>
   <si>
-    <t>Somethign Clever</t>
-  </si>
-  <si>
     <t>draft</t>
   </si>
   <si>
     <t>Somethign Clever But New</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>businessTherapeuticAreas</t>
@@ -1851,6 +1836,12 @@
   </si>
   <si>
     <t>toFrom</t>
+  </si>
+  <si>
+    <t>Cycles Test 1</t>
+  </si>
+  <si>
+    <t>DECISION1</t>
   </si>
 </sst>
 </file>
@@ -1934,7 +1925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1972,9 +1963,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1989,9 +1977,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2014,10 +1999,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2335,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2351,269 +2336,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="B2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="B9" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B10" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="B11" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="B12" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="B13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="B14" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="15">
-        <v>40179</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="15">
-        <v>40544</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2638,72 +2542,72 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
         <v>66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
         <v>69</v>
-      </c>
-      <c r="E4" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2730,205 +2634,205 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>83</v>
-      </c>
       <c r="G3" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3141,90 +3045,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
         <v>120</v>
       </c>
-      <c r="B2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>121</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" t="s">
         <v>122</v>
-      </c>
-      <c r="E2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3253,65 +3157,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>176</v>
+        <v>94</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" t="s">
         <v>178</v>
-      </c>
-      <c r="C3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3343,138 +3247,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="H1" s="22" t="s">
         <v>186</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3500,105 +3404,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>191</v>
+      <c r="A1" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3624,1231 +3528,1231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>511</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>274</v>
+      <c r="A1" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="B13" s="26"/>
+        <v>400</v>
+      </c>
+      <c r="B13" s="24"/>
       <c r="C13" s="10" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="B14" s="26"/>
+        <v>410</v>
+      </c>
+      <c r="B14" s="24"/>
       <c r="C14" s="10" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="B15" s="26"/>
+        <v>411</v>
+      </c>
+      <c r="B15" s="24"/>
       <c r="C15" s="10" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="B16" s="26"/>
+        <v>412</v>
+      </c>
+      <c r="B16" s="24"/>
       <c r="C16" s="10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="B17" s="26"/>
+        <v>413</v>
+      </c>
+      <c r="B17" s="24"/>
       <c r="C17" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B18" s="26"/>
+        <v>489</v>
+      </c>
+      <c r="B18" s="24"/>
       <c r="C18" s="10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="B19" s="26"/>
+        <v>490</v>
+      </c>
+      <c r="B19" s="24"/>
       <c r="C19" s="10" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="B20" s="26"/>
+        <v>467</v>
+      </c>
+      <c r="B20" s="24"/>
       <c r="C20" s="10" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="B21" s="26"/>
+        <v>491</v>
+      </c>
+      <c r="B21" s="24"/>
       <c r="C21" s="10" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="B22" s="26"/>
+        <v>492</v>
+      </c>
+      <c r="B22" s="24"/>
       <c r="C22" s="10" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="B23" s="26"/>
+        <v>493</v>
+      </c>
+      <c r="B23" s="24"/>
       <c r="C23" s="10" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="B24" s="26"/>
+        <v>494</v>
+      </c>
+      <c r="B24" s="24"/>
       <c r="C24" s="10" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="B25" s="26"/>
+        <v>495</v>
+      </c>
+      <c r="B25" s="24"/>
       <c r="C25" s="10" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="B26" s="26"/>
+        <v>456</v>
+      </c>
+      <c r="B26" s="24"/>
       <c r="C26" s="10" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="B27" s="26"/>
+        <v>457</v>
+      </c>
+      <c r="B27" s="24"/>
       <c r="C27" s="10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B28" s="26"/>
+        <v>458</v>
+      </c>
+      <c r="B28" s="24"/>
       <c r="C28" s="10" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="B29" s="26"/>
+        <v>459</v>
+      </c>
+      <c r="B29" s="24"/>
       <c r="C29" s="10" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="B30" s="26"/>
+        <v>496</v>
+      </c>
+      <c r="B30" s="24"/>
       <c r="C30" s="10" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B31" s="26"/>
+        <v>468</v>
+      </c>
+      <c r="B31" s="24"/>
       <c r="C31" s="10" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="B32" s="26"/>
+        <v>497</v>
+      </c>
+      <c r="B32" s="24"/>
       <c r="C32" s="10" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B33" s="26"/>
+        <v>498</v>
+      </c>
+      <c r="B33" s="24"/>
       <c r="C33" s="10" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="B34" s="26"/>
+        <v>499</v>
+      </c>
+      <c r="B34" s="24"/>
       <c r="C34" s="10" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="B35" s="26"/>
+        <v>414</v>
+      </c>
+      <c r="B35" s="24"/>
       <c r="C35" s="10" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="B36" s="26"/>
+        <v>500</v>
+      </c>
+      <c r="B36" s="24"/>
       <c r="C36" s="10" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="B37" s="26"/>
+        <v>501</v>
+      </c>
+      <c r="B37" s="24"/>
       <c r="C37" s="10" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="B38" s="26"/>
+        <v>415</v>
+      </c>
+      <c r="B38" s="24"/>
       <c r="C38" s="10" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="B39" s="26"/>
+        <v>416</v>
+      </c>
+      <c r="B39" s="24"/>
       <c r="C39" s="10" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="B40" s="26"/>
+        <v>417</v>
+      </c>
+      <c r="B40" s="24"/>
       <c r="C40" s="10" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="B41" s="26"/>
+        <v>502</v>
+      </c>
+      <c r="B41" s="24"/>
       <c r="C41" s="10" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="B42" s="26"/>
+        <v>418</v>
+      </c>
+      <c r="B42" s="24"/>
       <c r="C42" s="10" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="B43" s="26"/>
+        <v>419</v>
+      </c>
+      <c r="B43" s="24"/>
       <c r="C43" s="10" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="B44" s="26"/>
+        <v>420</v>
+      </c>
+      <c r="B44" s="24"/>
       <c r="C44" s="10" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="B45" s="26"/>
+        <v>503</v>
+      </c>
+      <c r="B45" s="24"/>
       <c r="C45" s="10" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="B46" s="26"/>
+        <v>504</v>
+      </c>
+      <c r="B46" s="24"/>
       <c r="C46" s="10" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="B47" s="26"/>
+        <v>421</v>
+      </c>
+      <c r="B47" s="24"/>
       <c r="C47" s="10" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="B48" s="26"/>
+        <v>422</v>
+      </c>
+      <c r="B48" s="24"/>
       <c r="C48" s="10" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="B49" s="26"/>
+        <v>423</v>
+      </c>
+      <c r="B49" s="24"/>
       <c r="C49" s="10" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="B50" s="26"/>
+        <v>424</v>
+      </c>
+      <c r="B50" s="24"/>
       <c r="C50" s="10" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="B51" s="26"/>
+        <v>469</v>
+      </c>
+      <c r="B51" s="24"/>
       <c r="C51" s="10" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="B52" s="26"/>
+        <v>505</v>
+      </c>
+      <c r="B52" s="24"/>
       <c r="C52" s="10" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B53" s="26"/>
+        <v>425</v>
+      </c>
+      <c r="B53" s="24"/>
       <c r="C53" s="10" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="B54" s="26"/>
+        <v>426</v>
+      </c>
+      <c r="B54" s="24"/>
       <c r="C54" s="10" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B55" s="26"/>
+        <v>427</v>
+      </c>
+      <c r="B55" s="24"/>
       <c r="C55" s="10" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="B56" s="26"/>
+        <v>507</v>
+      </c>
+      <c r="B56" s="24"/>
       <c r="C56" s="10" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="B57" s="26"/>
+        <v>508</v>
+      </c>
+      <c r="B57" s="24"/>
       <c r="C57" s="10" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="B58" s="26"/>
+        <v>509</v>
+      </c>
+      <c r="B58" s="24"/>
       <c r="C58" s="10" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B59" s="26"/>
+        <v>470</v>
+      </c>
+      <c r="B59" s="24"/>
       <c r="C59" s="10" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="B60" s="26"/>
+        <v>510</v>
+      </c>
+      <c r="B60" s="24"/>
       <c r="C60" s="10" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="B61" s="26"/>
+        <v>511</v>
+      </c>
+      <c r="B61" s="24"/>
       <c r="C61" s="10" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="B62" s="26"/>
+        <v>512</v>
+      </c>
+      <c r="B62" s="24"/>
       <c r="C62" s="10" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="B63" s="26"/>
+        <v>460</v>
+      </c>
+      <c r="B63" s="24"/>
       <c r="C63" s="10" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="B64" s="26"/>
+        <v>428</v>
+      </c>
+      <c r="B64" s="24"/>
       <c r="C64" s="10" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="B65" s="26"/>
+        <v>429</v>
+      </c>
+      <c r="B65" s="24"/>
       <c r="C65" s="10" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="B66" s="26"/>
+        <v>430</v>
+      </c>
+      <c r="B66" s="24"/>
       <c r="C66" s="10" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B67" s="26"/>
+        <v>431</v>
+      </c>
+      <c r="B67" s="24"/>
       <c r="C67" s="10" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="B68" s="26"/>
+        <v>513</v>
+      </c>
+      <c r="B68" s="24"/>
       <c r="C68" s="10" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="B69" s="26"/>
+        <v>461</v>
+      </c>
+      <c r="B69" s="24"/>
       <c r="C69" s="10" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="B70" s="26"/>
+        <v>432</v>
+      </c>
+      <c r="B70" s="24"/>
       <c r="C70" s="10" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B71" s="26"/>
+        <v>433</v>
+      </c>
+      <c r="B71" s="24"/>
       <c r="C71" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="B72" s="26"/>
+        <v>434</v>
+      </c>
+      <c r="B72" s="24"/>
       <c r="C72" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="B73" s="26"/>
+        <v>435</v>
+      </c>
+      <c r="B73" s="24"/>
       <c r="C73" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="B74" s="26"/>
+        <v>436</v>
+      </c>
+      <c r="B74" s="24"/>
       <c r="C74" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B75" s="26"/>
+        <v>437</v>
+      </c>
+      <c r="B75" s="24"/>
       <c r="C75" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="B76" s="26"/>
+        <v>438</v>
+      </c>
+      <c r="B76" s="24"/>
       <c r="C76" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B77" s="26"/>
+        <v>439</v>
+      </c>
+      <c r="B77" s="24"/>
       <c r="C77" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="B78" s="26"/>
+        <v>440</v>
+      </c>
+      <c r="B78" s="24"/>
       <c r="C78" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="B79" s="26"/>
+        <v>514</v>
+      </c>
+      <c r="B79" s="24"/>
       <c r="C79" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="B80" s="26"/>
+        <v>441</v>
+      </c>
+      <c r="B80" s="24"/>
       <c r="C80" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="B81" s="26"/>
+        <v>442</v>
+      </c>
+      <c r="B81" s="24"/>
       <c r="C81" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="B82" s="26"/>
+        <v>515</v>
+      </c>
+      <c r="B82" s="24"/>
       <c r="C82" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B83" s="26"/>
+        <v>443</v>
+      </c>
+      <c r="B83" s="24"/>
       <c r="C83" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="B84" s="26"/>
+        <v>444</v>
+      </c>
+      <c r="B84" s="24"/>
       <c r="C84" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="B85" s="26"/>
+        <v>445</v>
+      </c>
+      <c r="B85" s="24"/>
       <c r="C85" s="10" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="B86" s="26"/>
+        <v>446</v>
+      </c>
+      <c r="B86" s="24"/>
       <c r="C86" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="B87" s="26"/>
+        <v>447</v>
+      </c>
+      <c r="B87" s="24"/>
       <c r="C87" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="B88" s="26"/>
+        <v>516</v>
+      </c>
+      <c r="B88" s="24"/>
       <c r="C88" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="B89" s="26"/>
+        <v>517</v>
+      </c>
+      <c r="B89" s="24"/>
       <c r="C89" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="B90" s="26"/>
+        <v>518</v>
+      </c>
+      <c r="B90" s="24"/>
       <c r="C90" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="B91" s="26"/>
+        <v>510</v>
+      </c>
+      <c r="B91" s="24"/>
       <c r="C91" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="B92" s="26"/>
+        <v>462</v>
+      </c>
+      <c r="B92" s="24"/>
       <c r="C92" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B93" s="26"/>
+        <v>471</v>
+      </c>
+      <c r="B93" s="24"/>
       <c r="C93" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="B94" s="26"/>
+        <v>519</v>
+      </c>
+      <c r="B94" s="24"/>
       <c r="C94" s="10" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="B95" s="26"/>
+        <v>520</v>
+      </c>
+      <c r="B95" s="24"/>
       <c r="C95" s="10" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="B96" s="26"/>
+        <v>448</v>
+      </c>
+      <c r="B96" s="24"/>
       <c r="C96" s="10" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="B97" s="26"/>
+        <v>449</v>
+      </c>
+      <c r="B97" s="24"/>
       <c r="C97" s="10" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="B98" s="26"/>
+        <v>450</v>
+      </c>
+      <c r="B98" s="24"/>
       <c r="C98" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="B99" s="26"/>
+        <v>451</v>
+      </c>
+      <c r="B99" s="24"/>
       <c r="C99" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="B100" s="26"/>
+        <v>452</v>
+      </c>
+      <c r="B100" s="24"/>
       <c r="C100" s="10" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="B101" s="26"/>
+        <v>521</v>
+      </c>
+      <c r="B101" s="24"/>
       <c r="C101" s="10" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="B102" s="26"/>
+        <v>522</v>
+      </c>
+      <c r="B102" s="24"/>
       <c r="C102" s="10" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="B103" s="26"/>
+        <v>523</v>
+      </c>
+      <c r="B103" s="24"/>
       <c r="C103" s="10" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="B104" s="26"/>
+        <v>524</v>
+      </c>
+      <c r="B104" s="24"/>
       <c r="C104" s="10" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="B105" s="26"/>
+        <v>525</v>
+      </c>
+      <c r="B105" s="24"/>
       <c r="C105" s="10" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="B106" s="26"/>
+        <v>526</v>
+      </c>
+      <c r="B106" s="24"/>
       <c r="C106" s="10" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="B107" s="26"/>
+        <v>527</v>
+      </c>
+      <c r="B107" s="24"/>
       <c r="C107" s="10" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="B108" s="26"/>
+        <v>472</v>
+      </c>
+      <c r="B108" s="24"/>
       <c r="C108" s="10" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="B109" s="26"/>
+        <v>528</v>
+      </c>
+      <c r="B109" s="24"/>
       <c r="C109" s="10" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="B110" s="26"/>
+        <v>529</v>
+      </c>
+      <c r="B110" s="24"/>
       <c r="C110" s="10" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="B111" s="26"/>
+        <v>530</v>
+      </c>
+      <c r="B111" s="24"/>
       <c r="C111" s="10" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="B112" s="26"/>
+        <v>531</v>
+      </c>
+      <c r="B112" s="24"/>
       <c r="C112" s="10" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="B113" s="26"/>
+        <v>532</v>
+      </c>
+      <c r="B113" s="24"/>
       <c r="C113" s="10" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="B114" s="26"/>
+        <v>473</v>
+      </c>
+      <c r="B114" s="24"/>
       <c r="C114" s="10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="B115" s="26"/>
+        <v>488</v>
+      </c>
+      <c r="B115" s="24"/>
       <c r="C115" s="10" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="B116" s="26"/>
+        <v>487</v>
+      </c>
+      <c r="B116" s="24"/>
       <c r="C116" s="10" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B117" s="26"/>
+        <v>486</v>
+      </c>
+      <c r="B117" s="24"/>
       <c r="C117" s="10" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="B118" s="26"/>
+        <v>474</v>
+      </c>
+      <c r="B118" s="24"/>
       <c r="C118" s="10" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="B119" s="26"/>
+        <v>485</v>
+      </c>
+      <c r="B119" s="24"/>
       <c r="C119" s="10" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="B120" s="26"/>
+        <v>484</v>
+      </c>
+      <c r="B120" s="24"/>
       <c r="C120" s="10" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B121" s="26"/>
+        <v>483</v>
+      </c>
+      <c r="B121" s="24"/>
       <c r="C121" s="10" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="B122" s="26"/>
+        <v>482</v>
+      </c>
+      <c r="B122" s="24"/>
       <c r="C122" s="10" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B123" s="26"/>
+        <v>475</v>
+      </c>
+      <c r="B123" s="24"/>
       <c r="C123" s="10" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="B124" s="26"/>
+        <v>481</v>
+      </c>
+      <c r="B124" s="24"/>
       <c r="C124" s="10" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="B125" s="26"/>
+        <v>453</v>
+      </c>
+      <c r="B125" s="24"/>
       <c r="C125" s="10" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="B126" s="26"/>
+        <v>454</v>
+      </c>
+      <c r="B126" s="24"/>
       <c r="C126" s="10" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="B127" s="26"/>
+        <v>455</v>
+      </c>
+      <c r="B127" s="24"/>
       <c r="C127" s="10" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="B128" s="26"/>
+        <v>480</v>
+      </c>
+      <c r="B128" s="24"/>
       <c r="C128" s="10" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="B129" s="26"/>
+        <v>479</v>
+      </c>
+      <c r="B129" s="24"/>
       <c r="C129" s="10" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="B130" s="26"/>
+        <v>478</v>
+      </c>
+      <c r="B130" s="24"/>
       <c r="C130" s="10" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="B131" s="26"/>
+        <v>476</v>
+      </c>
+      <c r="B131" s="24"/>
       <c r="C131" s="10" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="B132" s="26"/>
+        <v>477</v>
+      </c>
+      <c r="B132" s="24"/>
       <c r="C132" s="10" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -4872,18 +4776,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4909,23 +4813,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>42</v>
+      <c r="F1" s="21" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4939,33 +4843,33 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>40</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4989,119 +4893,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="A1" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="A2" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="B4" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="B5" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="B6" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="B8" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="A9" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+      <c r="A10" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>210</v>
+      <c r="A12" s="16" t="s">
+        <v>205</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>6</v>
@@ -5110,41 +5014,41 @@
         <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5161,16 +5065,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5194,54 +5098,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>260</v>
+      <c r="A1" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5268,25 +5172,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>247</v>
+      <c r="A1" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5294,10 +5198,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5305,21 +5209,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -5350,75 +5254,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>167</v>
+      <c r="A1" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>471</v>
+        <v>163</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>466</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>49</v>
+      <c r="A2" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>171</v>
+      <c r="A3" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>543</v>
+        <v>167</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>538</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5427,82 +5331,82 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="C4" s="17" t="s">
-        <v>46</v>
+      <c r="A4" s="16"/>
+      <c r="C4" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="C5" s="17" t="s">
-        <v>551</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>561</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="C6" s="17" t="s">
-        <v>552</v>
+      <c r="A6" s="16"/>
+      <c r="C6" s="16" t="s">
+        <v>547</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="28" t="s">
-        <v>586</v>
+      <c r="H6" s="26" t="s">
+        <v>581</v>
       </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="17" t="s">
-        <v>549</v>
+      <c r="C7" s="16" t="s">
+        <v>544</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5517,41 +5421,41 @@
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="17" t="s">
-        <v>550</v>
+      <c r="C8" s="16" t="s">
+        <v>545</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>209</v>
+      <c r="C9" s="22" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -5562,7 +5466,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -5618,7 +5522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5E3869-2369-5644-A00D-6AA078FB1D13}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -5632,167 +5536,167 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="E2" t="s">
         <v>548</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>555</v>
+      </c>
+      <c r="G2" t="s">
+        <v>552</v>
+      </c>
+      <c r="H2" t="s">
         <v>553</v>
-      </c>
-      <c r="F2" t="s">
-        <v>560</v>
-      </c>
-      <c r="G2" t="s">
-        <v>557</v>
-      </c>
-      <c r="H2" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B3" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C3" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D3" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E3" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D4" t="s">
+        <v>562</v>
+      </c>
+      <c r="E4" t="s">
+        <v>556</v>
+      </c>
+      <c r="F4" t="s">
+        <v>556</v>
+      </c>
+      <c r="G4" t="s">
         <v>563</v>
-      </c>
-      <c r="D4" t="s">
-        <v>567</v>
-      </c>
-      <c r="E4" t="s">
-        <v>561</v>
-      </c>
-      <c r="F4" t="s">
-        <v>561</v>
-      </c>
-      <c r="G4" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B5" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C5" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D5" t="s">
+        <v>564</v>
+      </c>
+      <c r="E5" t="s">
         <v>569</v>
       </c>
-      <c r="E5" t="s">
-        <v>574</v>
-      </c>
       <c r="F5" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="H5" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B6" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D6" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E6" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="F6" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G6" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="H6" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -5819,17 +5723,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>269</v>
+      <c r="A1" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5837,7 +5741,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5845,13 +5749,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5879,72 +5783,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
         <v>53</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/decision_1_v2.xlsx
+++ b/tests/integration_test_files/decision_1_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F870F1-4E9A-334D-BCD3-B31D1F11680D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7EED7B-5E98-7F45-9921-976517804F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68800" yWindow="1220" windowWidth="33600" windowHeight="19460" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="68800" yWindow="1220" windowWidth="33600" windowHeight="19460" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="591">
   <si>
     <t>Screening</t>
   </si>
@@ -274,9 +274,6 @@
   </si>
   <si>
     <t>endpointDescription</t>
-  </si>
-  <si>
-    <t>endpointPurposeDescription</t>
   </si>
   <si>
     <t>endpointLevel</t>
@@ -1842,6 +1839,21 @@
   </si>
   <si>
     <t>DECISION1</t>
+  </si>
+  <si>
+    <t>objectiveLabel</t>
+  </si>
+  <si>
+    <t>objectiveText</t>
+  </si>
+  <si>
+    <t>endpointLabel</t>
+  </si>
+  <si>
+    <t>endpointText</t>
+  </si>
+  <si>
+    <t>endpointPurpose</t>
   </si>
 </sst>
 </file>
@@ -1925,7 +1937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1946,9 +1958,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1999,10 +2008,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2320,7 +2329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2336,11 +2345,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>586</v>
+      <c r="A1" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>585</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2348,11 +2357,11 @@
       <c r="H1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -2360,10 +2369,10 @@
       <c r="H2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E3"/>
@@ -2372,10 +2381,10 @@
       <c r="H3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E4"/>
@@ -2384,10 +2393,10 @@
       <c r="H4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E5"/>
@@ -2396,11 +2405,11 @@
       <c r="H5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>128</v>
+      <c r="A6" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2408,11 +2417,11 @@
       <c r="H6"/>
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>129</v>
+      <c r="A7" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2420,11 +2429,11 @@
       <c r="H7"/>
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>142</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2432,11 +2441,11 @@
       <c r="H8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>136</v>
+      <c r="A9" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -2444,11 +2453,11 @@
       <c r="H9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>137</v>
+      <c r="A10" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -2456,11 +2465,11 @@
       <c r="H10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>138</v>
+      <c r="A11" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -2468,11 +2477,11 @@
       <c r="H11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>140</v>
+      <c r="A12" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2480,10 +2489,10 @@
       <c r="H12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E13"/>
@@ -2492,11 +2501,11 @@
       <c r="H13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>135</v>
+      <c r="A14" s="18" t="s">
+        <v>134</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2617,407 +2626,564 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="59.5" customWidth="1"/>
-    <col min="6" max="7" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="70.5" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="E2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="K3" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3044,91 +3210,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
         <v>119</v>
       </c>
-      <c r="B2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>120</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" t="s">
         <v>121</v>
-      </c>
-      <c r="E2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
         <v>152</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" t="s">
         <v>153</v>
       </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>154</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" t="s">
         <v>155</v>
-      </c>
-      <c r="F5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3157,65 +3323,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>170</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" t="s">
         <v>172</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" t="s">
         <v>173</v>
-      </c>
-      <c r="C2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" t="s">
         <v>175</v>
       </c>
-      <c r="B3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" t="s">
         <v>177</v>
-      </c>
-      <c r="G3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3247,138 +3413,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>185</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3404,105 +3570,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>185</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3521,1238 +3687,1238 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="81.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="81.33203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="B45" s="23"/>
+      <c r="C45" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B48" s="23"/>
+      <c r="C48" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B54" s="23"/>
+      <c r="C54" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B55" s="23"/>
+      <c r="C55" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>466</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>534</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="10" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="B56" s="23"/>
+      <c r="C56" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B58" s="23"/>
+      <c r="C58" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="B59" s="23"/>
+      <c r="C59" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B60" s="23"/>
+      <c r="C60" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="B62" s="23"/>
+      <c r="C62" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="10" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
+      <c r="B63" s="23"/>
+      <c r="C63" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
+      <c r="B64" s="23"/>
+      <c r="C64" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B65" s="23"/>
+      <c r="C65" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B66" s="23"/>
+      <c r="C66" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B67" s="23"/>
+      <c r="C67" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="B68" s="23"/>
+      <c r="C68" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="B69" s="23"/>
+      <c r="C69" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B70" s="23"/>
+      <c r="C70" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B71" s="23"/>
+      <c r="C71" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B72" s="23"/>
+      <c r="C72" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B73" s="23"/>
+      <c r="C73" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B74" s="23"/>
+      <c r="C74" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B75" s="23"/>
+      <c r="C75" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B76" s="23"/>
+      <c r="C76" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B77" s="23"/>
+      <c r="C77" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B78" s="23"/>
+      <c r="C78" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B79" s="23"/>
+      <c r="C79" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B80" s="23"/>
+      <c r="C80" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B81" s="23"/>
+      <c r="C81" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="B82" s="23"/>
+      <c r="C82" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="B83" s="23"/>
+      <c r="C83" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B84" s="23"/>
+      <c r="C84" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B85" s="23"/>
+      <c r="C85" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B86" s="23"/>
+      <c r="C86" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B87" s="23"/>
+      <c r="C87" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B88" s="23"/>
+      <c r="C88" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B89" s="23"/>
+      <c r="C89" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B90" s="23"/>
+      <c r="C90" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
+      <c r="B91" s="23"/>
+      <c r="C91" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B92" s="23"/>
+      <c r="C92" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="B61" s="24"/>
-      <c r="C61" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="B62" s="24"/>
-      <c r="C62" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="B63" s="24"/>
-      <c r="C63" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="B64" s="24"/>
-      <c r="C64" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="B65" s="24"/>
-      <c r="C65" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B66" s="24"/>
-      <c r="C66" s="10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="B67" s="24"/>
-      <c r="C67" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="B69" s="24"/>
-      <c r="C69" s="10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="B72" s="24"/>
-      <c r="C72" s="10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="B73" s="24"/>
-      <c r="C73" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="B75" s="24"/>
-      <c r="C75" s="10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B76" s="24"/>
-      <c r="C76" s="10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="B77" s="24"/>
-      <c r="C77" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="B78" s="24"/>
-      <c r="C78" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="B79" s="24"/>
-      <c r="C79" s="10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="B80" s="24"/>
-      <c r="C80" s="10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B81" s="24"/>
-      <c r="C81" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A82" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="B83" s="24"/>
-      <c r="C83" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B84" s="24"/>
-      <c r="C84" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="B85" s="24"/>
-      <c r="C85" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="B86" s="24"/>
-      <c r="C86" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A87" s="11" t="s">
+      <c r="B93" s="23"/>
+      <c r="C93" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="B94" s="23"/>
+      <c r="C94" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B95" s="23"/>
+      <c r="C95" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="B87" s="24"/>
-      <c r="C87" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="B89" s="24"/>
-      <c r="C89" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="B90" s="24"/>
-      <c r="C90" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="B91" s="24"/>
-      <c r="C91" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="B92" s="24"/>
-      <c r="C92" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="11" t="s">
+      <c r="B96" s="23"/>
+      <c r="C96" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B97" s="23"/>
+      <c r="C97" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B98" s="23"/>
+      <c r="C98" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B99" s="23"/>
+      <c r="C99" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B100" s="23"/>
+      <c r="C100" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="B101" s="23"/>
+      <c r="C101" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B102" s="23"/>
+      <c r="C102" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="B103" s="23"/>
+      <c r="C103" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="B104" s="23"/>
+      <c r="C104" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="B105" s="23"/>
+      <c r="C105" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="B106" s="23"/>
+      <c r="C106" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B107" s="23"/>
+      <c r="C107" s="9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A108" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="B93" s="24"/>
-      <c r="C93" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="B94" s="24"/>
-      <c r="C94" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="B95" s="24"/>
-      <c r="C95" s="10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B96" s="24"/>
-      <c r="C96" s="10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="B97" s="24"/>
-      <c r="C97" s="10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="B98" s="24"/>
-      <c r="C98" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="B99" s="24"/>
-      <c r="C99" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="11" t="s">
+      <c r="B108" s="23"/>
+      <c r="C108" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="B109" s="23"/>
+      <c r="C109" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="B110" s="23"/>
+      <c r="C110" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="B111" s="23"/>
+      <c r="C111" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="B112" s="23"/>
+      <c r="C112" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B113" s="23"/>
+      <c r="C113" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A114" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B114" s="23"/>
+      <c r="C114" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="B115" s="23"/>
+      <c r="C115" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="B116" s="23"/>
+      <c r="C116" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="B117" s="23"/>
+      <c r="C117" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A118" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B118" s="23"/>
+      <c r="C118" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="B119" s="23"/>
+      <c r="C119" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="B120" s="23"/>
+      <c r="C120" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="B121" s="23"/>
+      <c r="C121" s="9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="B122" s="23"/>
+      <c r="C122" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="B123" s="23"/>
+      <c r="C123" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="B124" s="23"/>
+      <c r="C124" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B100" s="24"/>
-      <c r="C100" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="B101" s="24"/>
-      <c r="C101" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="B102" s="24"/>
-      <c r="C102" s="10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="B103" s="24"/>
-      <c r="C103" s="10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="B104" s="24"/>
-      <c r="C104" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="B105" s="24"/>
-      <c r="C105" s="10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="B106" s="24"/>
-      <c r="C106" s="10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="B107" s="24"/>
-      <c r="C107" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A108" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="B108" s="24"/>
-      <c r="C108" s="10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="B109" s="24"/>
-      <c r="C109" s="10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="B110" s="24"/>
-      <c r="C110" s="10" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="B111" s="24"/>
-      <c r="C111" s="10" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="B112" s="24"/>
-      <c r="C112" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="11" t="s">
+      <c r="B125" s="23"/>
+      <c r="C125" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B126" s="23"/>
+      <c r="C126" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B127" s="23"/>
+      <c r="C127" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B128" s="23"/>
+      <c r="C128" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="B129" s="23"/>
+      <c r="C129" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B130" s="23"/>
+      <c r="C130" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B131" s="23"/>
+      <c r="C131" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="B132" s="23"/>
+      <c r="C132" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="B113" s="24"/>
-      <c r="C113" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A114" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B114" s="24"/>
-      <c r="C114" s="10" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B115" s="24"/>
-      <c r="C115" s="10" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="B116" s="24"/>
-      <c r="C116" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="B117" s="24"/>
-      <c r="C117" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A118" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="B118" s="24"/>
-      <c r="C118" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="B119" s="24"/>
-      <c r="C119" s="10" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="B120" s="24"/>
-      <c r="C120" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="B121" s="24"/>
-      <c r="C121" s="10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="B122" s="24"/>
-      <c r="C122" s="10" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A123" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B123" s="24"/>
-      <c r="C123" s="10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="B124" s="24"/>
-      <c r="C124" s="10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="B125" s="24"/>
-      <c r="C125" s="10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="B126" s="24"/>
-      <c r="C126" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="B127" s="24"/>
-      <c r="C127" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B128" s="24"/>
-      <c r="C128" s="10" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="B129" s="24"/>
-      <c r="C129" s="10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="B130" s="24"/>
-      <c r="C130" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B131" s="24"/>
-      <c r="C131" s="10" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="B132" s="24"/>
-      <c r="C132" s="10" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="11" t="s">
-        <v>533</v>
-      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="11" t="s">
-        <v>533</v>
+      <c r="A134" s="10" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="11" t="s">
-        <v>533</v>
+      <c r="A135" s="10" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="11" t="s">
-        <v>533</v>
+      <c r="A136" s="10" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="11" t="s">
-        <v>533</v>
+      <c r="A137" s="10" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="11" t="s">
-        <v>533</v>
+      <c r="A138" s="10" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -4776,18 +4942,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
         <v>147</v>
-      </c>
-      <c r="B2" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4813,22 +4979,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4843,7 +5009,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
@@ -4863,7 +5029,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
@@ -4893,116 +5059,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="27" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>205</v>
+      <c r="A12" s="15" t="s">
+        <v>204</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>27</v>
@@ -5022,16 +5188,16 @@
         <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5039,16 +5205,16 @@
         <v>26</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5065,16 +5231,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5098,20 +5264,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>254</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5119,16 +5285,16 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5139,17 +5305,17 @@
         <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>259</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E4" s="11"/>
+      <c r="E4" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5172,14 +5338,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>241</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5187,10 +5353,10 @@
         <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5198,10 +5364,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5209,10 +5375,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5220,10 +5386,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -5254,75 +5420,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>558</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>538</v>
+      <c r="C3" s="15" t="s">
+        <v>537</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5331,82 +5497,82 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="C4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="C4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>580</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="15"/>
+      <c r="C5" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="C6" s="15" t="s">
         <v>546</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="C6" s="16" t="s">
-        <v>547</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="26" t="s">
-        <v>581</v>
+      <c r="H6" s="25" t="s">
+        <v>580</v>
       </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="16" t="s">
-        <v>544</v>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="15" t="s">
+        <v>543</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5425,37 +5591,37 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="16" t="s">
-        <v>545</v>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="15" t="s">
+        <v>544</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -5536,167 +5702,167 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>540</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G2" t="s">
+        <v>551</v>
+      </c>
+      <c r="H2" t="s">
         <v>552</v>
-      </c>
-      <c r="H2" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E3" t="s">
         <v>554</v>
       </c>
-      <c r="B3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C3" t="s">
-        <v>576</v>
-      </c>
-      <c r="D3" t="s">
-        <v>543</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>555</v>
-      </c>
-      <c r="F3" t="s">
-        <v>556</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D4" t="s">
+        <v>561</v>
+      </c>
+      <c r="E4" t="s">
+        <v>555</v>
+      </c>
+      <c r="F4" t="s">
+        <v>555</v>
+      </c>
+      <c r="G4" t="s">
         <v>562</v>
-      </c>
-      <c r="E4" t="s">
-        <v>556</v>
-      </c>
-      <c r="F4" t="s">
-        <v>556</v>
-      </c>
-      <c r="G4" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C5" t="s">
+        <v>565</v>
+      </c>
+      <c r="D5" t="s">
+        <v>563</v>
+      </c>
+      <c r="E5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F5" t="s">
+        <v>555</v>
+      </c>
+      <c r="G5" t="s">
         <v>566</v>
       </c>
-      <c r="D5" t="s">
-        <v>564</v>
-      </c>
-      <c r="E5" t="s">
-        <v>569</v>
-      </c>
-      <c r="F5" t="s">
-        <v>556</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>552</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>567</v>
-      </c>
-      <c r="H5" t="s">
-        <v>553</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D6" t="s">
+        <v>563</v>
+      </c>
+      <c r="E6" t="s">
+        <v>548</v>
+      </c>
+      <c r="F6" t="s">
+        <v>555</v>
+      </c>
+      <c r="G6" t="s">
+        <v>569</v>
+      </c>
+      <c r="H6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>564</v>
-      </c>
-      <c r="E6" t="s">
-        <v>549</v>
-      </c>
-      <c r="F6" t="s">
-        <v>556</v>
-      </c>
-      <c r="G6" t="s">
-        <v>570</v>
-      </c>
-      <c r="H6" t="s">
-        <v>553</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -5723,17 +5889,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>263</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5741,7 +5907,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5749,13 +5915,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" t="s">
         <v>266</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5783,7 +5949,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>45</v>
@@ -5797,7 +5963,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -5811,7 +5977,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
@@ -5825,7 +5991,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -5839,7 +6005,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>

--- a/tests/integration_test_files/decision_1_v2.xlsx
+++ b/tests/integration_test_files/decision_1_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7EED7B-5E98-7F45-9921-976517804F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A417A2-50AB-7E48-A59F-C8ACD006A47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68800" yWindow="1220" windowWidth="33600" windowHeight="19460" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="68800" yWindow="1220" windowWidth="33600" windowHeight="19460" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -159,9 +159,6 @@
     <t>trialTypes</t>
   </si>
   <si>
-    <t>line|city|district|state|postal_code|GBR</t>
-  </si>
-  <si>
     <t>DUNS</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
   </si>
   <si>
     <t>AP1234</t>
-  </si>
-  <si>
-    <t>Somewhere|In a City|In a District|In a big state|12345|FRA</t>
   </si>
   <si>
     <t>organisationAddress</t>
@@ -1854,6 +1848,12 @@
   </si>
   <si>
     <t>endpointPurpose</t>
+  </si>
+  <si>
+    <t>line|district|city|state|postal_code|GBR</t>
+  </si>
+  <si>
+    <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
   </si>
 </sst>
 </file>
@@ -2008,10 +2008,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2346,10 +2346,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2361,7 +2361,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -2385,7 +2385,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -2397,7 +2397,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2418,10 +2418,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2430,10 +2430,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2442,10 +2442,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -2454,10 +2454,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -2466,10 +2466,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -2478,10 +2478,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>15</v>
@@ -2502,10 +2502,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2551,72 +2551,72 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
         <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2628,7 +2628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
@@ -2648,85 +2648,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="J1" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>72</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>588</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>589</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>590</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2735,16 +2735,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2753,16 +2753,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2771,16 +2771,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2789,16 +2789,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2807,16 +2807,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2825,16 +2825,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2843,16 +2843,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2861,16 +2861,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2879,16 +2879,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2897,16 +2897,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3211,90 +3211,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
         <v>118</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>122</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
         <v>119</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" t="s">
         <v>151</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>152</v>
       </c>
-      <c r="C5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" t="s">
         <v>153</v>
-      </c>
-      <c r="E5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3323,65 +3323,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>168</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" t="s">
         <v>171</v>
-      </c>
-      <c r="B2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>175</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3414,137 +3414,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>183</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3571,104 +3571,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3695,16 +3695,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3713,1212 +3713,1212 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>534</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -4942,18 +4942,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" t="s">
         <v>146</v>
-      </c>
-      <c r="B1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4965,8 +4965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4995,7 +4995,7 @@
         <v>20</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5009,33 +5009,33 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>589</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -5060,10 +5060,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -5071,10 +5071,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -5084,41 +5084,41 @@
       <c r="A3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
@@ -5129,7 +5129,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -5140,7 +5140,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -5148,10 +5148,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -5168,7 +5168,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>27</v>
@@ -5188,16 +5188,16 @@
         <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5205,16 +5205,16 @@
         <v>26</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5231,16 +5231,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5265,19 +5265,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>252</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5285,16 +5285,16 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5305,13 +5305,13 @@
         <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5339,13 +5339,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>239</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5353,10 +5353,10 @@
         <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5364,10 +5364,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5375,10 +5375,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5386,10 +5386,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -5421,74 +5421,74 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5497,74 +5497,74 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="C4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="25" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -5572,7 +5572,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5594,23 +5594,23 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -5621,7 +5621,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -5632,7 +5632,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -5702,167 +5702,167 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>538</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E3" t="s">
+        <v>552</v>
+      </c>
+      <c r="F3" t="s">
         <v>553</v>
-      </c>
-      <c r="B3" t="s">
-        <v>573</v>
-      </c>
-      <c r="C3" t="s">
-        <v>575</v>
-      </c>
-      <c r="D3" t="s">
-        <v>542</v>
-      </c>
-      <c r="E3" t="s">
-        <v>554</v>
-      </c>
-      <c r="F3" t="s">
-        <v>555</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C5" t="s">
+        <v>563</v>
+      </c>
+      <c r="D5" t="s">
+        <v>561</v>
+      </c>
+      <c r="E5" t="s">
+        <v>566</v>
+      </c>
+      <c r="F5" t="s">
+        <v>553</v>
+      </c>
+      <c r="G5" t="s">
+        <v>564</v>
+      </c>
+      <c r="H5" t="s">
+        <v>550</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>565</v>
-      </c>
-      <c r="D5" t="s">
-        <v>563</v>
-      </c>
-      <c r="E5" t="s">
-        <v>568</v>
-      </c>
-      <c r="F5" t="s">
-        <v>555</v>
-      </c>
-      <c r="G5" t="s">
-        <v>566</v>
-      </c>
-      <c r="H5" t="s">
-        <v>552</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -5890,16 +5890,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>261</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5907,7 +5907,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5915,13 +5915,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5949,72 +5949,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/decision_1_v2.xlsx
+++ b/tests/integration_test_files/decision_1_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A417A2-50AB-7E48-A59F-C8ACD006A47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED51E3E-E331-0443-92A9-D70587CA45D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68800" yWindow="1220" windowWidth="33600" windowHeight="19460" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38440" yWindow="2440" windowWidth="33600" windowHeight="19460" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -21,15 +21,16 @@
     <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
     <sheet name="studyDesignTiming" sheetId="18" r:id="rId7"/>
     <sheet name="studyDesignActivities" sheetId="16" r:id="rId8"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId9"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId10"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId11"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId12"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId13"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId14"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId15"/>
-    <sheet name="studyDesignContent" sheetId="17" r:id="rId16"/>
-    <sheet name="configuration" sheetId="10" r:id="rId17"/>
+    <sheet name="studyDesignInterventions" sheetId="19" r:id="rId9"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId10"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId11"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId12"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId13"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId14"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId15"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId16"/>
+    <sheet name="studyDesignContent" sheetId="17" r:id="rId17"/>
+    <sheet name="configuration" sheetId="10" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="628">
   <si>
     <t>Screening</t>
   </si>
@@ -186,34 +187,16 @@
     <t>type</t>
   </si>
   <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>codes</t>
   </si>
   <si>
-    <t>An indication</t>
-  </si>
-  <si>
     <t>SNOMED:12345=Indication1</t>
   </si>
   <si>
-    <t>An intervention</t>
-  </si>
-  <si>
-    <t>ICD-10: X = Y, SNOMED: A=B</t>
-  </si>
-  <si>
     <t>SNOMED:345678=Indication2</t>
-  </si>
-  <si>
-    <t>ICD-10: DD=CC, SNOMED: A=B</t>
   </si>
   <si>
     <t>populationDescription</t>
@@ -1855,12 +1838,141 @@
   <si>
     <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
   </si>
+  <si>
+    <t>Indication One</t>
+  </si>
+  <si>
+    <t>Indication 1</t>
+  </si>
+  <si>
+    <t>Indication Two</t>
+  </si>
+  <si>
+    <t>Indication 2</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>pharmacologicalClass</t>
+  </si>
+  <si>
+    <t>productDesignation</t>
+  </si>
+  <si>
+    <t>minimumResponseDuration</t>
+  </si>
+  <si>
+    <t>administrationName</t>
+  </si>
+  <si>
+    <t>administrationDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationLabel</t>
+  </si>
+  <si>
+    <t>administrationRoute</t>
+  </si>
+  <si>
+    <t>administrationDose</t>
+  </si>
+  <si>
+    <t>administrationFrequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationDurationDescription</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVary</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVaryReason</t>
+  </si>
+  <si>
+    <t>administrationDurationQuantity</t>
+  </si>
+  <si>
+    <t>Int Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 1</t>
+  </si>
+  <si>
+    <t>SPONSOR: A=B</t>
+  </si>
+  <si>
+    <t>M11: role1=role1</t>
+  </si>
+  <si>
+    <t>DRUG</t>
+  </si>
+  <si>
+    <t>FDA: A=B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig1=desig_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Day</t>
+  </si>
+  <si>
+    <t>Admin 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 1</t>
+  </si>
+  <si>
+    <t>DENTAL</t>
+  </si>
+  <si>
+    <t>12 mg</t>
+  </si>
+  <si>
+    <t>10 DAYS PER MONTH</t>
+  </si>
+  <si>
+    <t>Dur desc 1</t>
+  </si>
+  <si>
+    <t>Will vary becuase we say so</t>
+  </si>
+  <si>
+    <t>14 %</t>
+  </si>
+  <si>
+    <t>Int Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 2</t>
+  </si>
+  <si>
+    <t>M11: role2=role2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig2=desig_2</t>
+  </si>
+  <si>
+    <t>Admin 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 2</t>
+  </si>
+  <si>
+    <t>Dur desc 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1904,6 +2016,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1937,7 +2055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2008,11 +2126,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2346,10 +2466,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2361,7 +2481,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -2406,10 +2526,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2418,10 +2538,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2430,10 +2550,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2442,10 +2562,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>133</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -2454,10 +2574,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>134</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -2466,10 +2586,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -2478,10 +2598,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2490,7 +2610,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>15</v>
@@ -2502,10 +2622,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2533,6 +2653,68 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -2551,72 +2733,72 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
         <v>58</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2624,7 +2806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -2648,85 +2830,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2735,16 +2917,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2753,16 +2935,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2771,16 +2953,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2789,16 +2971,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2807,16 +2989,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2825,16 +3007,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2843,16 +3025,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2861,16 +3043,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2879,16 +3061,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2897,16 +3079,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3191,7 +3373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -3211,90 +3393,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>97</v>
-      </c>
       <c r="H1" s="12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" t="s">
         <v>116</v>
       </c>
-      <c r="B2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" t="s">
-        <v>122</v>
-      </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" t="s">
         <v>95</v>
       </c>
-      <c r="G5" t="s">
-        <v>101</v>
-      </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3302,7 +3484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -3323,65 +3505,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3394,7 +3576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -3414,137 +3596,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>177</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3553,7 +3735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3571,104 +3753,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3677,7 +3859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D138"/>
   <sheetViews>
@@ -3695,16 +3877,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3713,1212 +3895,1212 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -4927,7 +5109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -4942,18 +5124,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4965,7 +5147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
@@ -5009,13 +5191,13 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5029,13 +5211,13 @@
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -5060,10 +5242,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -5071,10 +5253,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -5084,41 +5266,41 @@
       <c r="A3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="B3" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
@@ -5129,7 +5311,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -5140,7 +5322,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -5148,10 +5330,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
@@ -5159,7 +5341,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -5168,7 +5350,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>27</v>
@@ -5188,16 +5370,16 @@
         <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5205,16 +5387,16 @@
         <v>26</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5231,16 +5413,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5265,19 +5447,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5285,16 +5467,16 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5305,13 +5487,13 @@
         <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5339,13 +5521,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5353,10 +5535,10 @@
         <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5364,10 +5546,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5375,10 +5557,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5386,10 +5568,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -5421,74 +5603,74 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5497,13 +5679,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5512,59 +5694,59 @@
         <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="25" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -5572,7 +5754,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5594,23 +5776,23 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -5621,7 +5803,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -5702,167 +5884,167 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="H2" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B3" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C3" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D3" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E3" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="F3" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B4" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C4" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D4" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="E4" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F4" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="G4" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B5" t="s">
+        <v>562</v>
+      </c>
+      <c r="C5" t="s">
         <v>557</v>
       </c>
-      <c r="B5" t="s">
-        <v>568</v>
-      </c>
-      <c r="C5" t="s">
-        <v>563</v>
-      </c>
       <c r="D5" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E5" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="F5" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="G5" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="H5" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B6" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D6" t="s">
+        <v>555</v>
+      </c>
+      <c r="E6" t="s">
+        <v>540</v>
+      </c>
+      <c r="F6" t="s">
+        <v>547</v>
+      </c>
+      <c r="G6" t="s">
         <v>561</v>
       </c>
-      <c r="E6" t="s">
-        <v>546</v>
-      </c>
-      <c r="F6" t="s">
-        <v>553</v>
-      </c>
-      <c r="G6" t="s">
-        <v>567</v>
-      </c>
       <c r="H6" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -5890,16 +6072,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5907,7 +6089,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5915,13 +6097,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5934,87 +6116,212 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF4083D-9C08-7347-A149-512C606E4B24}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" customWidth="1"/>
+    <col min="16" max="16" width="33.33203125" customWidth="1"/>
+    <col min="17" max="17" width="29.1640625" customWidth="1"/>
+    <col min="18" max="18" width="34.83203125" customWidth="1"/>
+    <col min="19" max="19" width="29.33203125" customWidth="1"/>
+    <col min="20" max="20" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G1" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>592</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>603</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+      <c r="D2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>607</v>
+      </c>
+      <c r="G2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H2" t="s">
+        <v>609</v>
+      </c>
+      <c r="I2" t="s">
+        <v>610</v>
+      </c>
+      <c r="J2" t="s">
+        <v>611</v>
+      </c>
+      <c r="K2" t="s">
+        <v>612</v>
+      </c>
+      <c r="L2" t="s">
+        <v>613</v>
+      </c>
+      <c r="M2" t="s">
+        <v>614</v>
+      </c>
+      <c r="N2" t="s">
+        <v>615</v>
+      </c>
+      <c r="O2" t="s">
+        <v>616</v>
+      </c>
+      <c r="P2" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R2" t="s">
+        <v>618</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>620</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>621</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
+        <v>605</v>
+      </c>
+      <c r="E3" t="s">
+        <v>622</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>607</v>
+      </c>
+      <c r="G3" t="s">
+        <v>608</v>
+      </c>
+      <c r="H3" t="s">
+        <v>623</v>
+      </c>
+      <c r="I3" t="s">
+        <v>610</v>
+      </c>
+      <c r="J3" t="s">
+        <v>624</v>
+      </c>
+      <c r="K3" t="s">
+        <v>625</v>
+      </c>
+      <c r="L3" t="s">
+        <v>626</v>
+      </c>
+      <c r="M3" t="s">
+        <v>614</v>
+      </c>
+      <c r="N3" t="s">
+        <v>615</v>
+      </c>
+      <c r="O3" t="s">
+        <v>616</v>
+      </c>
+      <c r="P3" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>168</v>
+      </c>
+      <c r="R3" t="s">
+        <v>618</v>
+      </c>
+      <c r="S3" s="30" t="s">
+        <v>619</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/decision_1_v2.xlsx
+++ b/tests/integration_test_files/decision_1_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED51E3E-E331-0443-92A9-D70587CA45D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF855754-A914-7C43-B11E-3B3079735A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38440" yWindow="2440" windowWidth="33600" windowHeight="19460" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38440" yWindow="2440" windowWidth="33600" windowHeight="19460" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="630">
   <si>
     <t>Screening</t>
   </si>
@@ -202,46 +202,16 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>Pop 1</t>
-  </si>
-  <si>
-    <t>plannedNumberOfParticipants</t>
-  </si>
-  <si>
-    <t>plannedMinimumAgeOfParticipants</t>
-  </si>
-  <si>
     <t>18 years</t>
   </si>
   <si>
-    <t>40 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
   </si>
   <si>
-    <t>Pop 2</t>
-  </si>
-  <si>
-    <t>60 years</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Pop 3</t>
-  </si>
-  <si>
     <t>70 years</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>plannedMaximumAgeOfParticipants</t>
   </si>
   <si>
     <t>objectiveDescription</t>
@@ -1966,6 +1936,42 @@
   </si>
   <si>
     <t>Dur desc 2</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumber</t>
+  </si>
+  <si>
+    <t>plannedMinimumAge</t>
+  </si>
+  <si>
+    <t>plannedMaximumAge</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>POP1</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
+    <t>COHORT1</t>
+  </si>
+  <si>
+    <t>30 years</t>
+  </si>
+  <si>
+    <t>COHORT2</t>
+  </si>
+  <si>
+    <t>31 years</t>
   </si>
 </sst>
 </file>
@@ -2122,17 +2128,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2466,10 +2472,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2481,7 +2487,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -2526,10 +2532,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2538,10 +2544,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2550,10 +2556,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2562,10 +2568,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -2574,10 +2580,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -2586,10 +2592,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -2598,10 +2604,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2610,7 +2616,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>15</v>
@@ -2622,10 +2628,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2669,13 +2675,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>45</v>
@@ -2683,13 +2689,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="C2" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>46</v>
@@ -2697,13 +2703,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C3" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>47</v>
@@ -2716,89 +2722,96 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>619</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>620</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>621</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>622</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B3" t="s">
+        <v>626</v>
+      </c>
+      <c r="G3" t="s">
         <v>49</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H3" s="6" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>625</v>
+      </c>
+      <c r="B4" t="s">
+        <v>628</v>
+      </c>
+      <c r="G4" t="s">
+        <v>629</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2830,85 +2843,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2917,16 +2930,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2935,16 +2948,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2953,16 +2966,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2971,16 +2984,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2989,16 +3002,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3007,16 +3020,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3025,16 +3038,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3043,16 +3056,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3061,16 +3074,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3079,16 +3092,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3393,90 +3406,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3505,65 +3518,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3596,137 +3609,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3753,104 +3766,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3877,16 +3890,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3895,1212 +3908,1212 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -5124,18 +5137,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -5191,13 +5204,13 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5211,13 +5224,13 @@
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -5242,115 +5255,115 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+        <v>213</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+        <v>214</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="B6" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="B7" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="B8" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+        <v>141</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+        <v>142</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>27</v>
@@ -5370,16 +5383,16 @@
         <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5387,16 +5400,16 @@
         <v>26</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5413,16 +5426,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5447,19 +5460,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5467,16 +5480,16 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5487,13 +5500,13 @@
         <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5521,13 +5534,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5535,10 +5548,10 @@
         <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5546,10 +5559,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5557,10 +5570,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5568,10 +5581,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5603,39 +5616,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>44</v>
@@ -5644,33 +5657,33 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5679,13 +5692,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5694,59 +5707,59 @@
         <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>547</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="25" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -5754,7 +5767,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5776,23 +5789,23 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -5803,7 +5816,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -5884,167 +5897,167 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="B2" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="E2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H2" t="s">
         <v>534</v>
-      </c>
-      <c r="E2" t="s">
-        <v>539</v>
-      </c>
-      <c r="F2" t="s">
-        <v>546</v>
-      </c>
-      <c r="G2" t="s">
-        <v>543</v>
-      </c>
-      <c r="H2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="B3" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="C3" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="D3" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="E3" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="F3" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B4" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C4" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="D4" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E4" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F4" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="G4" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="B5" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="C5" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="D5" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="E5" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="F5" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="G5" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="H5" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="B6" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="C6" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D6" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="E6" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="F6" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="G6" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="H6" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -6072,16 +6085,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6089,7 +6102,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6097,13 +6110,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6119,7 +6132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF4083D-9C08-7347-A149-512C606E4B24}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -6149,179 +6162,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>43</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>581</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>583</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q1" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>592</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>593</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>594</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>595</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>596</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>597</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>598</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>599</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>601</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E2" t="s">
+        <v>596</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="G2" t="s">
+        <v>598</v>
+      </c>
+      <c r="H2" t="s">
+        <v>599</v>
+      </c>
+      <c r="I2" t="s">
+        <v>600</v>
+      </c>
+      <c r="J2" t="s">
+        <v>601</v>
+      </c>
+      <c r="K2" t="s">
+        <v>602</v>
+      </c>
+      <c r="L2" t="s">
         <v>603</v>
       </c>
-      <c r="C2" t="s">
+      <c r="M2" t="s">
         <v>604</v>
       </c>
-      <c r="D2" t="s">
+      <c r="N2" t="s">
         <v>605</v>
       </c>
-      <c r="E2" t="s">
+      <c r="O2" t="s">
         <v>606</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="P2" t="s">
         <v>607</v>
       </c>
-      <c r="G2" t="s">
+      <c r="Q2" t="s">
+        <v>158</v>
+      </c>
+      <c r="R2" t="s">
         <v>608</v>
       </c>
-      <c r="H2" t="s">
+      <c r="S2" s="27" t="s">
         <v>609</v>
-      </c>
-      <c r="I2" t="s">
-        <v>610</v>
-      </c>
-      <c r="J2" t="s">
-        <v>611</v>
-      </c>
-      <c r="K2" t="s">
-        <v>612</v>
-      </c>
-      <c r="L2" t="s">
-        <v>613</v>
-      </c>
-      <c r="M2" t="s">
-        <v>614</v>
-      </c>
-      <c r="N2" t="s">
-        <v>615</v>
-      </c>
-      <c r="O2" t="s">
-        <v>616</v>
-      </c>
-      <c r="P2" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>168</v>
-      </c>
-      <c r="R2" t="s">
-        <v>618</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="C3" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="D3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E3" t="s">
+        <v>612</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="G3" t="s">
+        <v>598</v>
+      </c>
+      <c r="H3" t="s">
+        <v>613</v>
+      </c>
+      <c r="I3" t="s">
+        <v>600</v>
+      </c>
+      <c r="J3" t="s">
+        <v>614</v>
+      </c>
+      <c r="K3" t="s">
+        <v>615</v>
+      </c>
+      <c r="L3" t="s">
+        <v>616</v>
+      </c>
+      <c r="M3" t="s">
+        <v>604</v>
+      </c>
+      <c r="N3" t="s">
         <v>605</v>
       </c>
-      <c r="E3" t="s">
-        <v>622</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>607</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="O3" t="s">
+        <v>606</v>
+      </c>
+      <c r="P3" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>158</v>
+      </c>
+      <c r="R3" t="s">
         <v>608</v>
       </c>
-      <c r="H3" t="s">
-        <v>623</v>
-      </c>
-      <c r="I3" t="s">
-        <v>610</v>
-      </c>
-      <c r="J3" t="s">
-        <v>624</v>
-      </c>
-      <c r="K3" t="s">
-        <v>625</v>
-      </c>
-      <c r="L3" t="s">
-        <v>626</v>
-      </c>
-      <c r="M3" t="s">
-        <v>614</v>
-      </c>
-      <c r="N3" t="s">
-        <v>615</v>
-      </c>
-      <c r="O3" t="s">
-        <v>616</v>
-      </c>
-      <c r="P3" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>168</v>
-      </c>
-      <c r="R3" t="s">
-        <v>618</v>
-      </c>
-      <c r="S3" s="30" t="s">
-        <v>619</v>
+      <c r="S3" s="27" t="s">
+        <v>609</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/decision_1_v2.xlsx
+++ b/tests/integration_test_files/decision_1_v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF855754-A914-7C43-B11E-3B3079735A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFDB991-1CBE-6244-82AB-D3BD11ACB562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38440" yWindow="2440" windowWidth="33600" windowHeight="19460" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="627">
   <si>
     <t>Screening</t>
   </si>
@@ -202,16 +202,10 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>18 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
-  </si>
-  <si>
-    <t>70 years</t>
   </si>
   <si>
     <t>objectiveDescription</t>
@@ -1947,12 +1941,6 @@
     <t>plannedEnrollmentNumber</t>
   </si>
   <si>
-    <t>plannedMinimumAge</t>
-  </si>
-  <si>
-    <t>plannedMaximumAge</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -1965,13 +1953,16 @@
     <t>COHORT1</t>
   </si>
   <si>
-    <t>30 years</t>
-  </si>
-  <si>
     <t>COHORT2</t>
   </si>
   <si>
-    <t>31 years</t>
+    <t>plannedAge</t>
+  </si>
+  <si>
+    <t>18 .. 30 years</t>
+  </si>
+  <si>
+    <t>31 .. 70 years</t>
   </si>
 </sst>
 </file>
@@ -2134,10 +2125,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2472,10 +2463,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2487,7 +2478,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -2532,10 +2523,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2544,10 +2535,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2556,10 +2547,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2568,10 +2559,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -2580,10 +2571,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -2592,10 +2583,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -2604,10 +2595,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2616,7 +2607,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>15</v>
@@ -2628,10 +2619,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2675,13 +2666,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>45</v>
@@ -2689,13 +2680,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>46</v>
@@ -2703,13 +2694,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>47</v>
@@ -2722,10 +2713,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+      <selection activeCell="G3" sqref="G3:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2735,45 +2726,42 @@
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>624</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>619</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="B2" t="s">
         <v>620</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>621</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>622</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>623</v>
-      </c>
-      <c r="B2" t="s">
-        <v>624</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2781,37 +2769,30 @@
       <c r="F2">
         <v>120</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B3" t="s">
+        <v>622</v>
+      </c>
+      <c r="G3" t="s">
         <v>625</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B4" t="s">
+        <v>623</v>
+      </c>
+      <c r="G4" t="s">
         <v>626</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>625</v>
-      </c>
-      <c r="B4" t="s">
-        <v>628</v>
-      </c>
-      <c r="G4" t="s">
-        <v>629</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2843,85 +2824,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>569</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="J1" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>570</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>571</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>572</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2930,16 +2911,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2948,16 +2929,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2966,16 +2947,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2984,16 +2965,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3002,16 +2983,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3020,16 +3001,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3038,16 +3019,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3056,16 +3037,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3074,16 +3055,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3092,16 +3073,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3406,90 +3387,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>104</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
         <v>101</v>
-      </c>
-      <c r="D2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
         <v>133</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>134</v>
       </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" t="s">
         <v>135</v>
-      </c>
-      <c r="E5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3518,65 +3499,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>150</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" t="s">
         <v>153</v>
-      </c>
-      <c r="B2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>157</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3609,137 +3590,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>165</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3766,104 +3747,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3890,16 +3871,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3908,1212 +3889,1212 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -5137,18 +5118,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
         <v>128</v>
-      </c>
-      <c r="B1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5204,13 +5185,13 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5224,13 +5205,13 @@
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -5255,10 +5236,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -5266,10 +5247,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -5279,41 +5260,41 @@
       <c r="A3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -5324,7 +5305,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -5335,7 +5316,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -5343,10 +5324,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -5354,7 +5335,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -5363,7 +5344,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>27</v>
@@ -5383,16 +5364,16 @@
         <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5400,16 +5381,16 @@
         <v>26</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5426,16 +5407,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5460,19 +5441,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>234</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5480,16 +5461,16 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5500,13 +5481,13 @@
         <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5534,13 +5515,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5548,10 +5529,10 @@
         <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5559,10 +5540,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5570,10 +5551,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5581,10 +5562,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5616,39 +5597,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>44</v>
@@ -5657,33 +5638,33 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5692,13 +5673,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5707,59 +5688,59 @@
         <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="25" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -5767,7 +5748,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5789,23 +5770,23 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -5816,7 +5797,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -5897,167 +5878,167 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>520</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C3" t="s">
+        <v>555</v>
+      </c>
+      <c r="D3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F3" t="s">
         <v>535</v>
-      </c>
-      <c r="B3" t="s">
-        <v>555</v>
-      </c>
-      <c r="C3" t="s">
-        <v>557</v>
-      </c>
-      <c r="D3" t="s">
-        <v>524</v>
-      </c>
-      <c r="E3" t="s">
-        <v>536</v>
-      </c>
-      <c r="F3" t="s">
-        <v>537</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C5" t="s">
+        <v>545</v>
+      </c>
+      <c r="D5" t="s">
+        <v>543</v>
+      </c>
+      <c r="E5" t="s">
+        <v>548</v>
+      </c>
+      <c r="F5" t="s">
+        <v>535</v>
+      </c>
+      <c r="G5" t="s">
+        <v>546</v>
+      </c>
+      <c r="H5" t="s">
+        <v>532</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>547</v>
-      </c>
-      <c r="D5" t="s">
-        <v>545</v>
-      </c>
-      <c r="E5" t="s">
-        <v>550</v>
-      </c>
-      <c r="F5" t="s">
-        <v>537</v>
-      </c>
-      <c r="G5" t="s">
-        <v>548</v>
-      </c>
-      <c r="H5" t="s">
-        <v>534</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -6085,16 +6066,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>243</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6102,7 +6083,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6110,13 +6091,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6162,179 +6143,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>43</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>583</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>590</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>591</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D2" t="s">
         <v>593</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>594</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="26" t="s">
         <v>595</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>596</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="H2" t="s">
         <v>597</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>598</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>599</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>600</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>601</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>602</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>603</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>604</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>605</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>156</v>
+      </c>
+      <c r="R2" t="s">
         <v>606</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="27" t="s">
         <v>607</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>158</v>
-      </c>
-      <c r="R2" t="s">
-        <v>608</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C3" t="s">
+        <v>609</v>
+      </c>
+      <c r="D3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E3" t="s">
         <v>610</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="G3" t="s">
+        <v>596</v>
+      </c>
+      <c r="H3" t="s">
         <v>611</v>
       </c>
-      <c r="D3" t="s">
-        <v>595</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>598</v>
+      </c>
+      <c r="J3" t="s">
         <v>612</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>597</v>
-      </c>
-      <c r="G3" t="s">
-        <v>598</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>613</v>
       </c>
-      <c r="I3" t="s">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>614</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>602</v>
+      </c>
+      <c r="N3" t="s">
+        <v>603</v>
+      </c>
+      <c r="O3" t="s">
+        <v>604</v>
+      </c>
+      <c r="P3" t="s">
         <v>615</v>
       </c>
-      <c r="L3" t="s">
-        <v>616</v>
-      </c>
-      <c r="M3" t="s">
-        <v>604</v>
-      </c>
-      <c r="N3" t="s">
-        <v>605</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>156</v>
+      </c>
+      <c r="R3" t="s">
         <v>606</v>
       </c>
-      <c r="P3" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>158</v>
-      </c>
-      <c r="R3" t="s">
-        <v>608</v>
-      </c>
       <c r="S3" s="27" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/decision_1_v2.xlsx
+++ b/tests/integration_test_files/decision_1_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFDB991-1CBE-6244-82AB-D3BD11ACB562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88D7E01-8803-DE4B-B029-984232511DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38440" yWindow="2440" windowWidth="33600" windowHeight="19460" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38440" yWindow="2440" windowWidth="33600" windowHeight="19460" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="626">
   <si>
     <t>Screening</t>
   </si>
@@ -1866,18 +1866,12 @@
     <t>SPONSOR: A=B</t>
   </si>
   <si>
-    <t>M11: role1=role1</t>
-  </si>
-  <si>
     <t>DRUG</t>
   </si>
   <si>
     <t>FDA: A=B</t>
   </si>
   <si>
-    <t xml:space="preserve"> M11: desig1=desig_1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 Day</t>
   </si>
   <si>
@@ -1914,12 +1908,6 @@
     <t xml:space="preserve"> Int Label 2</t>
   </si>
   <si>
-    <t>M11: role2=role2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M11: desig2=desig_2</t>
-  </si>
-  <si>
     <t>Admin 2</t>
   </si>
   <si>
@@ -1963,6 +1951,15 @@
   </si>
   <si>
     <t>31 .. 70 years</t>
+  </si>
+  <si>
+    <t>Experimental Intervention</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>NIMP (AxMP)</t>
   </si>
 </sst>
 </file>
@@ -2125,10 +2122,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2715,7 +2712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G3" sqref="G3:G4"/>
     </sheetView>
   </sheetViews>
@@ -2732,7 +2729,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>445</v>
@@ -2744,13 +2741,13 @@
         <v>517</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>49</v>
@@ -2758,10 +2755,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B2" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2775,24 +2772,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B3" t="s">
+        <v>618</v>
+      </c>
+      <c r="G3" t="s">
         <v>621</v>
-      </c>
-      <c r="B3" t="s">
-        <v>622</v>
-      </c>
-      <c r="G3" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B4" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G4" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -5260,34 +5257,34 @@
       <c r="A3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -5407,16 +5404,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6113,8 +6110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF4083D-9C08-7347-A149-512C606E4B24}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6214,49 +6211,49 @@
         <v>593</v>
       </c>
       <c r="E2" t="s">
+        <v>623</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>594</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" t="s">
         <v>595</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>624</v>
+      </c>
+      <c r="I2" t="s">
         <v>596</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>597</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>598</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>599</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>600</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>601</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>602</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>603</v>
-      </c>
-      <c r="O2" t="s">
-        <v>604</v>
-      </c>
-      <c r="P2" t="s">
-        <v>605</v>
       </c>
       <c r="Q2" t="s">
         <v>156</v>
       </c>
       <c r="R2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="S2" s="27" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -6264,58 +6261,58 @@
         <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D3" t="s">
         <v>593</v>
       </c>
       <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>594</v>
+      </c>
+      <c r="G3" t="s">
+        <v>595</v>
+      </c>
+      <c r="H3" t="s">
+        <v>625</v>
+      </c>
+      <c r="I3" t="s">
+        <v>596</v>
+      </c>
+      <c r="J3" t="s">
+        <v>608</v>
+      </c>
+      <c r="K3" t="s">
+        <v>609</v>
+      </c>
+      <c r="L3" t="s">
         <v>610</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>595</v>
-      </c>
-      <c r="G3" t="s">
-        <v>596</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
+        <v>600</v>
+      </c>
+      <c r="N3" t="s">
+        <v>601</v>
+      </c>
+      <c r="O3" t="s">
+        <v>602</v>
+      </c>
+      <c r="P3" t="s">
         <v>611</v>
-      </c>
-      <c r="I3" t="s">
-        <v>598</v>
-      </c>
-      <c r="J3" t="s">
-        <v>612</v>
-      </c>
-      <c r="K3" t="s">
-        <v>613</v>
-      </c>
-      <c r="L3" t="s">
-        <v>614</v>
-      </c>
-      <c r="M3" t="s">
-        <v>602</v>
-      </c>
-      <c r="N3" t="s">
-        <v>603</v>
-      </c>
-      <c r="O3" t="s">
-        <v>604</v>
-      </c>
-      <c r="P3" t="s">
-        <v>615</v>
       </c>
       <c r="Q3" t="s">
         <v>156</v>
       </c>
       <c r="R3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="S3" s="27" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/decision_1_v2.xlsx
+++ b/tests/integration_test_files/decision_1_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88D7E01-8803-DE4B-B029-984232511DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED52EC24-D502-F849-A439-EFCB7CB69238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38440" yWindow="2440" windowWidth="33600" windowHeight="19460" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38440" yWindow="2440" windowWidth="33600" windowHeight="19460" firstSheet="5" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -223,9 +223,6 @@
     <t>The primary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
   </si>
   <si>
-    <t>Study Primary Objective</t>
-  </si>
-  <si>
     <t>Clinical status assessed using a 7-category ordinal scale at Day 28</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
   </si>
   <si>
     <t>The secondary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
-  </si>
-  <si>
-    <t>Study Secondary Objective</t>
   </si>
   <si>
     <t>Time to clinical improvement (TTCI) defined as a National Early Warning Score 2 (NEWS2) of &lt;=2 maintained for 24 hours</t>
@@ -1960,6 +1954,12 @@
   </si>
   <si>
     <t>NIMP (AxMP)</t>
+  </si>
+  <si>
+    <t>Primary Objective</t>
+  </si>
+  <si>
+    <t>Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -2122,10 +2122,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2145,9 +2145,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2185,7 +2185,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2291,7 +2291,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2433,7 +2433,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2460,10 +2460,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2475,7 +2475,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2532,10 +2532,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2544,10 +2544,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2556,10 +2556,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -2568,10 +2568,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -2580,10 +2580,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -2592,10 +2592,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>15</v>
@@ -2616,10 +2616,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2663,13 +2663,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>45</v>
@@ -2677,13 +2677,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>46</v>
@@ -2691,13 +2691,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>47</v>
@@ -2729,25 +2729,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>49</v>
@@ -2755,10 +2755,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2772,24 +2772,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B4" t="s">
         <v>617</v>
       </c>
-      <c r="B4" t="s">
-        <v>619</v>
-      </c>
       <c r="G4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -2801,8 +2801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2821,34 +2821,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>52</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>53</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>568</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>569</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>570</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>54</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2864,42 +2864,42 @@
         <v>55</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>56</v>
+        <v>624</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>60</v>
+        <v>625</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2908,16 +2908,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2926,16 +2926,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2944,16 +2944,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2962,16 +2962,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2980,16 +2980,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2998,16 +2998,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3016,16 +3016,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3034,16 +3034,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3052,16 +3052,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3070,16 +3070,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3384,90 +3384,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>97</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
         <v>98</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>102</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
         <v>99</v>
-      </c>
-      <c r="D2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
         <v>131</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>132</v>
       </c>
-      <c r="C5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s">
         <v>133</v>
-      </c>
-      <c r="E5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3496,65 +3496,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>148</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" t="s">
         <v>151</v>
-      </c>
-      <c r="B2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>155</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3587,137 +3587,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>163</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3744,104 +3744,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3868,16 +3868,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3886,1212 +3886,1212 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>514</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B81" s="23"/>
       <c r="C81" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B117" s="23"/>
       <c r="C117" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -5115,18 +5115,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
         <v>126</v>
-      </c>
-      <c r="B1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5182,13 +5182,13 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5202,13 +5202,13 @@
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -5233,10 +5233,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -5244,10 +5244,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -5257,41 +5257,41 @@
       <c r="A3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -5302,7 +5302,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -5313,7 +5313,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -5321,10 +5321,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -5332,7 +5332,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -5341,7 +5341,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>27</v>
@@ -5361,16 +5361,16 @@
         <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5378,16 +5378,16 @@
         <v>26</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5404,16 +5404,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5438,19 +5438,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>232</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5458,16 +5458,16 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5478,13 +5478,13 @@
         <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5512,13 +5512,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>219</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5526,10 +5526,10 @@
         <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5537,10 +5537,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5548,10 +5548,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5559,10 +5559,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5594,39 +5594,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>44</v>
@@ -5635,33 +5635,33 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5670,13 +5670,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5685,59 +5685,59 @@
         <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="25" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -5745,7 +5745,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5767,23 +5767,23 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -5794,7 +5794,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -5875,167 +5875,167 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>518</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F3" t="s">
         <v>533</v>
-      </c>
-      <c r="B3" t="s">
-        <v>553</v>
-      </c>
-      <c r="C3" t="s">
-        <v>555</v>
-      </c>
-      <c r="D3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E3" t="s">
-        <v>534</v>
-      </c>
-      <c r="F3" t="s">
-        <v>535</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C5" t="s">
+        <v>543</v>
+      </c>
+      <c r="D5" t="s">
+        <v>541</v>
+      </c>
+      <c r="E5" t="s">
+        <v>546</v>
+      </c>
+      <c r="F5" t="s">
+        <v>533</v>
+      </c>
+      <c r="G5" t="s">
+        <v>544</v>
+      </c>
+      <c r="H5" t="s">
+        <v>530</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>545</v>
-      </c>
-      <c r="D5" t="s">
-        <v>543</v>
-      </c>
-      <c r="E5" t="s">
-        <v>548</v>
-      </c>
-      <c r="F5" t="s">
-        <v>535</v>
-      </c>
-      <c r="G5" t="s">
-        <v>546</v>
-      </c>
-      <c r="H5" t="s">
-        <v>532</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -6063,16 +6063,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>241</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6080,7 +6080,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6088,13 +6088,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6110,7 +6110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF4083D-9C08-7347-A149-512C606E4B24}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
@@ -6140,179 +6140,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>43</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>578</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>579</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>583</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>588</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>589</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D2" t="s">
         <v>591</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>621</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>592</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>593</v>
       </c>
-      <c r="E2" t="s">
-        <v>623</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="H2" t="s">
+        <v>622</v>
+      </c>
+      <c r="I2" t="s">
         <v>594</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>595</v>
       </c>
-      <c r="H2" t="s">
-        <v>624</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>596</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>597</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>598</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>599</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>600</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>601</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>154</v>
+      </c>
+      <c r="R2" t="s">
         <v>602</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="27" t="s">
         <v>603</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>156</v>
-      </c>
-      <c r="R2" t="s">
-        <v>604</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="26" t="s">
+        <v>592</v>
+      </c>
+      <c r="G3" t="s">
+        <v>593</v>
+      </c>
+      <c r="H3" t="s">
+        <v>623</v>
+      </c>
+      <c r="I3" t="s">
         <v>594</v>
       </c>
-      <c r="G3" t="s">
-        <v>595</v>
-      </c>
-      <c r="H3" t="s">
-        <v>625</v>
-      </c>
-      <c r="I3" t="s">
-        <v>596</v>
-      </c>
       <c r="J3" t="s">
+        <v>606</v>
+      </c>
+      <c r="K3" t="s">
+        <v>607</v>
+      </c>
+      <c r="L3" t="s">
         <v>608</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>598</v>
+      </c>
+      <c r="N3" t="s">
+        <v>599</v>
+      </c>
+      <c r="O3" t="s">
+        <v>600</v>
+      </c>
+      <c r="P3" t="s">
         <v>609</v>
       </c>
-      <c r="L3" t="s">
-        <v>610</v>
-      </c>
-      <c r="M3" t="s">
-        <v>600</v>
-      </c>
-      <c r="N3" t="s">
-        <v>601</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>154</v>
+      </c>
+      <c r="R3" t="s">
         <v>602</v>
       </c>
-      <c r="P3" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>156</v>
-      </c>
-      <c r="R3" t="s">
-        <v>604</v>
-      </c>
       <c r="S3" s="27" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/decision_1_v2.xlsx
+++ b/tests/integration_test_files/decision_1_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01763C3B-2968-B34F-B16B-07605248C2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A5BA4C-579E-9A4E-9C2E-E7B12EC9C18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="49320" windowHeight="27260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51800" yWindow="500" windowWidth="49320" windowHeight="27260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="909">
   <si>
     <t>name</t>
   </si>
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t>BASIC SCIENCE,    DEVICE FEASIBILITY</t>
-  </si>
-  <si>
-    <t>trialTypes</t>
   </si>
   <si>
     <t>Efficacy Study</t>
@@ -2781,6 +2778,12 @@
   </si>
   <si>
     <t>identifier</t>
+  </si>
+  <si>
+    <t>trialSubTypes</t>
+  </si>
+  <si>
+    <t>spare</t>
   </si>
 </sst>
 </file>
@@ -2850,7 +2853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2919,12 +2922,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3242,7 +3239,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3410,176 +3407,176 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>185</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" t="s">
         <v>187</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>188</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>189</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>190</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" t="s">
         <v>192</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>193</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>194</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>195</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>196</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>197</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>198</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>199</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>200</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>201</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>169</v>
+      </c>
+      <c r="R2" t="s">
         <v>202</v>
       </c>
-      <c r="Q2" t="s">
-        <v>170</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="25" t="s">
         <v>203</v>
-      </c>
-      <c r="S2" s="25" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" t="s">
         <v>205</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>206</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" t="s">
         <v>207</v>
       </c>
-      <c r="D3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="G3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J3" t="s">
         <v>208</v>
       </c>
-      <c r="I3" t="s">
-        <v>195</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>209</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>210</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N3" t="s">
+        <v>199</v>
+      </c>
+      <c r="O3" t="s">
+        <v>200</v>
+      </c>
+      <c r="P3" t="s">
         <v>211</v>
       </c>
-      <c r="M3" t="s">
-        <v>199</v>
-      </c>
-      <c r="N3" t="s">
-        <v>200</v>
-      </c>
-      <c r="O3" t="s">
-        <v>201</v>
-      </c>
-      <c r="P3" t="s">
-        <v>212</v>
-      </c>
       <c r="Q3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R3" t="s">
+        <v>202</v>
+      </c>
+      <c r="S3" s="25" t="s">
         <v>203</v>
-      </c>
-      <c r="S3" s="25" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3607,41 +3604,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" t="s">
         <v>213</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>214</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" t="s">
         <v>217</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>218</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3670,36 +3667,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>224</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" t="s">
         <v>226</v>
-      </c>
-      <c r="B2" t="s">
-        <v>227</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3708,29 +3705,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" t="s">
         <v>229</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G3" t="s">
         <v>230</v>
-      </c>
-      <c r="G3" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" t="s">
         <v>232</v>
-      </c>
-      <c r="G4" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3762,85 +3759,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>243</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>247</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>248</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>249</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>253</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>254</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>255</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -3849,16 +3846,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3867,16 +3864,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3885,16 +3882,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3903,16 +3900,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3921,16 +3918,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -3939,16 +3936,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3957,16 +3954,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -3975,16 +3972,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -3993,16 +3990,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4011,16 +4008,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -4325,114 +4322,114 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
+        <v>901</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>902</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>283</v>
-      </c>
       <c r="J1" s="19" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" t="s">
         <v>284</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>285</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" t="s">
         <v>286</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>287</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I2" t="s">
         <v>288</v>
       </c>
-      <c r="G2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I2" t="s">
-        <v>289</v>
-      </c>
       <c r="J2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5" t="s">
         <v>292</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" t="s">
         <v>293</v>
       </c>
-      <c r="C5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>294</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" t="s">
+        <v>253</v>
+      </c>
+      <c r="I5" t="s">
         <v>295</v>
       </c>
-      <c r="G5" t="s">
-        <v>205</v>
-      </c>
-      <c r="H5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I5" t="s">
-        <v>296</v>
-      </c>
       <c r="J5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -4461,65 +4458,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>301</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" t="s">
         <v>303</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>304</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>305</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>306</v>
-      </c>
-      <c r="E2" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" t="s">
         <v>308</v>
       </c>
-      <c r="B3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>309</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>310</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" t="s">
         <v>311</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4552,137 +4549,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>318</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -4708,104 +4705,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>335</v>
-      </c>
       <c r="D1" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>318</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -4828,18 +4825,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1" t="s">
         <v>351</v>
-      </c>
-      <c r="B1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -4866,707 +4863,707 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>355</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>364</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>378</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>380</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>401</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="21" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="21" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="21" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="21" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -5578,7 +5575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
@@ -5601,7 +5598,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>30</v>
@@ -5638,7 +5635,7 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
@@ -5676,2729 +5673,2729 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>500</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>504</v>
-      </c>
       <c r="E2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="C3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>507</v>
-      </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="C4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>510</v>
-      </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="C5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>513</v>
-      </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="C6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>516</v>
-      </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="C7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>519</v>
-      </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="C8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>522</v>
-      </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="C9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>525</v>
-      </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>525</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="C10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>528</v>
-      </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>528</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="C11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>531</v>
-      </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>531</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="C12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>534</v>
-      </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>534</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="C13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>537</v>
-      </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>537</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="C14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>540</v>
-      </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>540</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="C15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>543</v>
-      </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>543</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="C16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>546</v>
-      </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>546</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="C17" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>549</v>
-      </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>549</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="C18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>552</v>
-      </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>552</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="C19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>555</v>
-      </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>555</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="C20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="C20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>558</v>
-      </c>
       <c r="E20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>558</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="C21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>561</v>
-      </c>
       <c r="E21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>561</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="C22" t="s">
-        <v>170</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>564</v>
-      </c>
       <c r="E22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>564</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="C23" t="s">
-        <v>170</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>567</v>
-      </c>
       <c r="E23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>567</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="C24" t="s">
-        <v>170</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>570</v>
-      </c>
       <c r="E24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>570</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="C25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="C25" t="s">
-        <v>170</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>573</v>
-      </c>
       <c r="E25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>573</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="C26" t="s">
-        <v>170</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>576</v>
-      </c>
       <c r="E26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>576</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="C27" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>579</v>
-      </c>
       <c r="E27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>579</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="C28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="C28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>582</v>
-      </c>
       <c r="E28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>582</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="C29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="C29" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>585</v>
-      </c>
       <c r="E29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>585</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="C30" t="s">
-        <v>170</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>588</v>
-      </c>
       <c r="E30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>588</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="C31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="C31" t="s">
-        <v>170</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>591</v>
-      </c>
       <c r="E31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F31" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>591</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="C32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="C32" t="s">
-        <v>170</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>594</v>
-      </c>
       <c r="E32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F32" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>594</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="C33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="C33" t="s">
-        <v>170</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>597</v>
-      </c>
       <c r="E33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F33" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>597</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="C34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="C34" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>600</v>
-      </c>
       <c r="E34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>600</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="C35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="C35" t="s">
-        <v>170</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>603</v>
-      </c>
       <c r="E35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>603</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="C36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="C36" t="s">
-        <v>170</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>606</v>
-      </c>
       <c r="E36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>606</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="C37" t="s">
-        <v>170</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>609</v>
-      </c>
       <c r="E37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>609</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="C38" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="C38" t="s">
-        <v>170</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>612</v>
-      </c>
       <c r="E38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F38" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>612</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="C39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="C39" t="s">
-        <v>170</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>615</v>
-      </c>
       <c r="E39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>615</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="C40" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="C40" t="s">
-        <v>170</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>618</v>
-      </c>
       <c r="E40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>618</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="C41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="C41" t="s">
-        <v>170</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>621</v>
-      </c>
       <c r="E41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>621</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>622</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="C42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="C42" t="s">
-        <v>170</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>624</v>
-      </c>
       <c r="E42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>624</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="C43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="C43" t="s">
-        <v>170</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>627</v>
-      </c>
       <c r="E43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F43" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>627</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>628</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="C44" t="s">
-        <v>170</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>630</v>
-      </c>
       <c r="E44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F44" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>630</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="C45" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="C45" t="s">
-        <v>170</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>633</v>
-      </c>
       <c r="E45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F45" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>633</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>634</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="C46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="C46" t="s">
-        <v>170</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>636</v>
-      </c>
       <c r="E46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>636</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="C47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="C47" t="s">
-        <v>170</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>639</v>
-      </c>
       <c r="E47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F47" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>639</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="C48" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="C48" t="s">
-        <v>170</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>642</v>
-      </c>
       <c r="E48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F48" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>642</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="C49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="C49" t="s">
-        <v>170</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>645</v>
-      </c>
       <c r="E49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F49" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>645</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="C50" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="C50" t="s">
-        <v>170</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>648</v>
-      </c>
       <c r="E50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F50" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>648</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="C51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="C51" t="s">
-        <v>170</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>651</v>
-      </c>
       <c r="E51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F51" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>651</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="C52" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="C52" t="s">
-        <v>170</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>654</v>
-      </c>
       <c r="E52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F52" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>654</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="C53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="C53" t="s">
-        <v>170</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>657</v>
-      </c>
       <c r="E53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F53" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>657</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>658</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="C54" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="C54" t="s">
-        <v>170</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>660</v>
-      </c>
       <c r="E54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F54" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>660</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="C55" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="C55" t="s">
-        <v>170</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>663</v>
-      </c>
       <c r="E55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F55" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>663</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>664</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="C56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="C56" t="s">
-        <v>170</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>666</v>
-      </c>
       <c r="E56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F56" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>666</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="C57" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="C57" t="s">
-        <v>170</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>669</v>
-      </c>
       <c r="E57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F57" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>669</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="C58" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="C58" t="s">
-        <v>170</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>672</v>
-      </c>
       <c r="E58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F58" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>672</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="C59" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="C59" t="s">
-        <v>170</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>675</v>
-      </c>
       <c r="E59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F59" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>675</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>676</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="C60" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="C60" t="s">
-        <v>170</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>678</v>
-      </c>
       <c r="E60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F60" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>678</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>679</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="C61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="C61" t="s">
-        <v>170</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>681</v>
-      </c>
       <c r="E61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F61" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>681</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="C62" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="C62" t="s">
-        <v>170</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>684</v>
-      </c>
       <c r="E62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F62" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>684</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="C63" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="C63" t="s">
-        <v>170</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>687</v>
-      </c>
       <c r="E63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F63" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>687</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="C64" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="C64" t="s">
-        <v>170</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>690</v>
-      </c>
       <c r="E64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F64" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>690</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="C65" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="C65" t="s">
-        <v>170</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>693</v>
-      </c>
       <c r="E65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F65" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>693</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="C66" t="s">
+        <v>169</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="C66" t="s">
-        <v>170</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>696</v>
-      </c>
       <c r="E66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F66" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>696</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="C67" t="s">
+        <v>169</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="C67" t="s">
-        <v>170</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>699</v>
-      </c>
       <c r="E67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F67" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>699</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>700</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="C68" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="C68" t="s">
-        <v>170</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>702</v>
-      </c>
       <c r="E68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F68" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>702</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="C69" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="C69" t="s">
-        <v>170</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>705</v>
-      </c>
       <c r="E69" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F69" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>705</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="C70" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="C70" t="s">
-        <v>170</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>708</v>
-      </c>
       <c r="E70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F70" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>708</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="C71" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="C71" t="s">
-        <v>170</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>711</v>
-      </c>
       <c r="E71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F71" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>711</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>712</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="C72" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="C72" t="s">
-        <v>170</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>714</v>
-      </c>
       <c r="E72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F72" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>714</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="C73" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>716</v>
       </c>
-      <c r="C73" t="s">
-        <v>170</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>717</v>
-      </c>
       <c r="E73" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F73" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>717</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>718</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="C74" t="s">
+        <v>169</v>
+      </c>
+      <c r="D74" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="C74" t="s">
-        <v>170</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>720</v>
-      </c>
       <c r="E74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F74" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>720</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>721</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="C75" t="s">
+        <v>169</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="C75" t="s">
-        <v>170</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>723</v>
-      </c>
       <c r="E75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F75" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>723</v>
+      </c>
+      <c r="B76" s="10" t="s">
         <v>724</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="C76" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="C76" t="s">
-        <v>170</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>726</v>
-      </c>
       <c r="E76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F76" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>726</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="C77" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="C77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>729</v>
-      </c>
       <c r="E77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F77" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>729</v>
+      </c>
+      <c r="B78" s="10" t="s">
         <v>730</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="C78" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="C78" t="s">
-        <v>170</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>732</v>
-      </c>
       <c r="E78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F78" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>732</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="C79" t="s">
+        <v>169</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="C79" t="s">
-        <v>170</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>735</v>
-      </c>
       <c r="E79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F79" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>735</v>
+      </c>
+      <c r="B80" s="10" t="s">
         <v>736</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="C80" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="C80" t="s">
-        <v>170</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>738</v>
-      </c>
       <c r="E80" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F80" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>738</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>739</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="C81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="C81" t="s">
-        <v>170</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>741</v>
-      </c>
       <c r="E81" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F81" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>741</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>742</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="C82" t="s">
+        <v>169</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="C82" t="s">
-        <v>170</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>744</v>
-      </c>
       <c r="E82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F82" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>744</v>
+      </c>
+      <c r="B83" s="10" t="s">
         <v>745</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="C83" t="s">
+        <v>169</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="C83" t="s">
-        <v>170</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>747</v>
-      </c>
       <c r="E83" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F83" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>747</v>
+      </c>
+      <c r="B84" s="10" t="s">
         <v>748</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="C84" t="s">
+        <v>169</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="C84" t="s">
-        <v>170</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>750</v>
-      </c>
       <c r="E84" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F84" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>750</v>
+      </c>
+      <c r="B85" s="10" t="s">
         <v>751</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="C85" t="s">
+        <v>169</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>752</v>
       </c>
-      <c r="C85" t="s">
-        <v>170</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>753</v>
-      </c>
       <c r="E85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F85" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>753</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>754</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="C86" t="s">
+        <v>169</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="C86" t="s">
-        <v>170</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>756</v>
-      </c>
       <c r="E86" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>756</v>
+      </c>
+      <c r="B87" s="10" t="s">
         <v>757</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="C87" t="s">
+        <v>169</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="C87" t="s">
-        <v>170</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>759</v>
-      </c>
       <c r="E87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>759</v>
+      </c>
+      <c r="B88" s="10" t="s">
         <v>760</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="C88" t="s">
+        <v>169</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="C88" t="s">
-        <v>170</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>762</v>
-      </c>
       <c r="E88" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>762</v>
+      </c>
+      <c r="B89" s="10" t="s">
         <v>763</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="C89" t="s">
+        <v>169</v>
+      </c>
+      <c r="D89" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="C89" t="s">
-        <v>170</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>765</v>
-      </c>
       <c r="E89" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>765</v>
+      </c>
+      <c r="B90" s="10" t="s">
         <v>766</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="C90" t="s">
+        <v>169</v>
+      </c>
+      <c r="D90" s="9" t="s">
         <v>767</v>
       </c>
-      <c r="C90" t="s">
-        <v>170</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>768</v>
-      </c>
       <c r="E90" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>768</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="C91" t="s">
+        <v>169</v>
+      </c>
+      <c r="D91" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>677</v>
-      </c>
-      <c r="C91" t="s">
-        <v>170</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>770</v>
-      </c>
       <c r="E91" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F91" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>770</v>
+      </c>
+      <c r="B92" s="10" t="s">
         <v>771</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="C92" t="s">
+        <v>169</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>772</v>
       </c>
-      <c r="C92" t="s">
-        <v>170</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>773</v>
-      </c>
       <c r="E92" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F92" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>773</v>
+      </c>
+      <c r="B93" s="10" t="s">
         <v>774</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="C93" t="s">
+        <v>169</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="C93" t="s">
-        <v>170</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>776</v>
-      </c>
       <c r="E93" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F93" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>776</v>
+      </c>
+      <c r="B94" s="10" t="s">
         <v>777</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="C94" t="s">
+        <v>169</v>
+      </c>
+      <c r="D94" s="9" t="s">
         <v>778</v>
       </c>
-      <c r="C94" t="s">
-        <v>170</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>779</v>
-      </c>
       <c r="E94" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F94" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>779</v>
+      </c>
+      <c r="B95" s="10" t="s">
         <v>780</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="C95" t="s">
+        <v>169</v>
+      </c>
+      <c r="D95" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="C95" t="s">
-        <v>170</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>782</v>
-      </c>
       <c r="E95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F95" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>782</v>
+      </c>
+      <c r="B96" s="10" t="s">
         <v>783</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="C96" t="s">
+        <v>169</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>784</v>
       </c>
-      <c r="C96" t="s">
-        <v>170</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>785</v>
-      </c>
       <c r="E96" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F96" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>785</v>
+      </c>
+      <c r="B97" s="10" t="s">
         <v>786</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="C97" t="s">
+        <v>169</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>787</v>
       </c>
-      <c r="C97" t="s">
-        <v>170</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>788</v>
-      </c>
       <c r="E97" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F97" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>788</v>
+      </c>
+      <c r="B98" s="10" t="s">
         <v>789</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="C98" t="s">
+        <v>169</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>790</v>
       </c>
-      <c r="C98" t="s">
-        <v>170</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>791</v>
-      </c>
       <c r="E98" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F98" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>791</v>
+      </c>
+      <c r="B99" s="10" t="s">
         <v>792</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="C99" t="s">
+        <v>169</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>793</v>
       </c>
-      <c r="C99" t="s">
-        <v>170</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>794</v>
-      </c>
       <c r="E99" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F99" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>794</v>
+      </c>
+      <c r="B100" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="C100" t="s">
+        <v>169</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>796</v>
       </c>
-      <c r="C100" t="s">
-        <v>170</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>797</v>
-      </c>
       <c r="E100" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F100" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>797</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>798</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="C101" t="s">
+        <v>169</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>799</v>
       </c>
-      <c r="C101" t="s">
-        <v>170</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>800</v>
-      </c>
       <c r="E101" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F101" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>800</v>
+      </c>
+      <c r="B102" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="C102" t="s">
+        <v>169</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>802</v>
       </c>
-      <c r="C102" t="s">
-        <v>170</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>803</v>
-      </c>
       <c r="E102" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F102" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>803</v>
+      </c>
+      <c r="B103" s="10" t="s">
         <v>804</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="C103" t="s">
+        <v>169</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="C103" t="s">
-        <v>170</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>806</v>
-      </c>
       <c r="E103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F103" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>806</v>
+      </c>
+      <c r="B104" s="10" t="s">
         <v>807</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="C104" t="s">
+        <v>169</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>808</v>
       </c>
-      <c r="C104" t="s">
-        <v>170</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>809</v>
-      </c>
       <c r="E104" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F104" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>809</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>810</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="C105" t="s">
+        <v>169</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>811</v>
       </c>
-      <c r="C105" t="s">
-        <v>170</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>812</v>
-      </c>
       <c r="E105" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F105" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>812</v>
+      </c>
+      <c r="B106" s="10" t="s">
         <v>813</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="C106" t="s">
+        <v>169</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>814</v>
       </c>
-      <c r="C106" t="s">
-        <v>170</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>815</v>
-      </c>
       <c r="E106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F106" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>815</v>
+      </c>
+      <c r="B107" s="10" t="s">
         <v>816</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="C107" t="s">
+        <v>169</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>817</v>
       </c>
-      <c r="C107" t="s">
-        <v>170</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>818</v>
-      </c>
       <c r="E107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F107" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>818</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>819</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="C108" t="s">
+        <v>169</v>
+      </c>
+      <c r="D108" s="9" t="s">
         <v>820</v>
       </c>
-      <c r="C108" t="s">
-        <v>170</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>821</v>
-      </c>
       <c r="E108" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F108" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>821</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>822</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="C109" t="s">
+        <v>169</v>
+      </c>
+      <c r="D109" s="9" t="s">
         <v>823</v>
       </c>
-      <c r="C109" t="s">
-        <v>170</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>824</v>
-      </c>
       <c r="E109" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F109" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>824</v>
+      </c>
+      <c r="B110" s="10" t="s">
         <v>825</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="C110" t="s">
+        <v>169</v>
+      </c>
+      <c r="D110" s="9" t="s">
         <v>826</v>
       </c>
-      <c r="C110" t="s">
-        <v>170</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>827</v>
-      </c>
       <c r="E110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F110" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>827</v>
+      </c>
+      <c r="B111" s="10" t="s">
         <v>828</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="C111" t="s">
+        <v>169</v>
+      </c>
+      <c r="D111" s="9" t="s">
         <v>829</v>
       </c>
-      <c r="C111" t="s">
-        <v>170</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>830</v>
-      </c>
       <c r="E111" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F111" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>830</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>831</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="C112" t="s">
+        <v>169</v>
+      </c>
+      <c r="D112" s="9" t="s">
         <v>832</v>
       </c>
-      <c r="C112" t="s">
-        <v>170</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>833</v>
-      </c>
       <c r="E112" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F112" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>833</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>834</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="C113" t="s">
+        <v>169</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="C113" t="s">
-        <v>170</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>836</v>
-      </c>
       <c r="E113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F113" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>836</v>
+      </c>
+      <c r="B114" s="10" t="s">
         <v>837</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="C114" t="s">
+        <v>169</v>
+      </c>
+      <c r="D114" s="9" t="s">
         <v>838</v>
       </c>
-      <c r="C114" t="s">
-        <v>170</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>839</v>
-      </c>
       <c r="E114" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F114" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>839</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>840</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="C115" t="s">
+        <v>169</v>
+      </c>
+      <c r="D115" s="9" t="s">
         <v>841</v>
       </c>
-      <c r="C115" t="s">
-        <v>170</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>842</v>
-      </c>
       <c r="E115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F115" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>842</v>
+      </c>
+      <c r="B116" s="10" t="s">
         <v>843</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="C116" t="s">
+        <v>169</v>
+      </c>
+      <c r="D116" s="9" t="s">
         <v>844</v>
       </c>
-      <c r="C116" t="s">
-        <v>170</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>845</v>
-      </c>
       <c r="E116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F116" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>845</v>
+      </c>
+      <c r="B117" s="10" t="s">
         <v>846</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="C117" t="s">
+        <v>169</v>
+      </c>
+      <c r="D117" s="9" t="s">
         <v>847</v>
       </c>
-      <c r="C117" t="s">
-        <v>170</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>848</v>
-      </c>
       <c r="E117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F117" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>848</v>
+      </c>
+      <c r="B118" s="10" t="s">
         <v>849</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="C118" t="s">
+        <v>169</v>
+      </c>
+      <c r="D118" s="9" t="s">
         <v>850</v>
       </c>
-      <c r="C118" t="s">
-        <v>170</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>851</v>
-      </c>
       <c r="E118" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F118" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>851</v>
+      </c>
+      <c r="B119" s="10" t="s">
         <v>852</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="C119" t="s">
+        <v>169</v>
+      </c>
+      <c r="D119" s="9" t="s">
         <v>853</v>
       </c>
-      <c r="C119" t="s">
-        <v>170</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>854</v>
-      </c>
       <c r="E119" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F119" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>854</v>
+      </c>
+      <c r="B120" s="10" t="s">
         <v>855</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="C120" t="s">
+        <v>169</v>
+      </c>
+      <c r="D120" s="9" t="s">
         <v>856</v>
       </c>
-      <c r="C120" t="s">
-        <v>170</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>857</v>
-      </c>
       <c r="E120" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F120" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>857</v>
+      </c>
+      <c r="B121" s="10" t="s">
         <v>858</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="C121" t="s">
+        <v>169</v>
+      </c>
+      <c r="D121" s="9" t="s">
         <v>859</v>
       </c>
-      <c r="C121" t="s">
-        <v>170</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>860</v>
-      </c>
       <c r="E121" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F121" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>860</v>
+      </c>
+      <c r="B122" s="10" t="s">
         <v>861</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="C122" t="s">
+        <v>169</v>
+      </c>
+      <c r="D122" s="9" t="s">
         <v>862</v>
       </c>
-      <c r="C122" t="s">
-        <v>170</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>863</v>
-      </c>
       <c r="E122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F122" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>863</v>
+      </c>
+      <c r="B123" s="10" t="s">
         <v>864</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="C123" t="s">
+        <v>169</v>
+      </c>
+      <c r="D123" s="9" t="s">
         <v>865</v>
       </c>
-      <c r="C123" t="s">
-        <v>170</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>866</v>
-      </c>
       <c r="E123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F123" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>866</v>
+      </c>
+      <c r="B124" s="10" t="s">
         <v>867</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="C124" t="s">
+        <v>169</v>
+      </c>
+      <c r="D124" s="9" t="s">
         <v>868</v>
       </c>
-      <c r="C124" t="s">
-        <v>170</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>869</v>
-      </c>
       <c r="E124" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F124" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>869</v>
+      </c>
+      <c r="B125" s="10" t="s">
         <v>870</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="C125" t="s">
+        <v>169</v>
+      </c>
+      <c r="D125" s="9" t="s">
         <v>871</v>
       </c>
-      <c r="C125" t="s">
-        <v>170</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>872</v>
-      </c>
       <c r="E125" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F125" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>872</v>
+      </c>
+      <c r="B126" s="10" t="s">
         <v>873</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="C126" t="s">
+        <v>169</v>
+      </c>
+      <c r="D126" s="9" t="s">
         <v>874</v>
       </c>
-      <c r="C126" t="s">
-        <v>170</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>875</v>
-      </c>
       <c r="E126" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F126" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>875</v>
+      </c>
+      <c r="B127" s="10" t="s">
         <v>876</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="C127" t="s">
+        <v>169</v>
+      </c>
+      <c r="D127" s="9" t="s">
         <v>877</v>
       </c>
-      <c r="C127" t="s">
-        <v>170</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>878</v>
-      </c>
       <c r="E127" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F127" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>878</v>
+      </c>
+      <c r="B128" s="10" t="s">
         <v>879</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="C128" t="s">
+        <v>169</v>
+      </c>
+      <c r="D128" s="9" t="s">
         <v>880</v>
       </c>
-      <c r="C128" t="s">
-        <v>170</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>881</v>
-      </c>
       <c r="E128" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F128" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>881</v>
+      </c>
+      <c r="B129" s="10" t="s">
         <v>882</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="C129" t="s">
+        <v>169</v>
+      </c>
+      <c r="D129" s="9" t="s">
         <v>883</v>
       </c>
-      <c r="C129" t="s">
-        <v>170</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>884</v>
-      </c>
       <c r="E129" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F129" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>884</v>
+      </c>
+      <c r="B130" s="10" t="s">
         <v>885</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="C130" t="s">
+        <v>169</v>
+      </c>
+      <c r="D130" s="9" t="s">
         <v>886</v>
       </c>
-      <c r="C130" t="s">
-        <v>170</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>887</v>
-      </c>
       <c r="E130" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F130" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>887</v>
+      </c>
+      <c r="B131" s="10" t="s">
         <v>888</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="C131" t="s">
+        <v>169</v>
+      </c>
+      <c r="D131" s="9" t="s">
         <v>889</v>
       </c>
-      <c r="C131" t="s">
-        <v>170</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>890</v>
-      </c>
       <c r="E131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F131" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>890</v>
+      </c>
+      <c r="B132" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="C132" t="s">
+        <v>169</v>
+      </c>
+      <c r="D132" s="9" t="s">
         <v>892</v>
       </c>
-      <c r="C132" t="s">
-        <v>170</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>893</v>
-      </c>
       <c r="E132" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F132" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B133" s="10"/>
       <c r="C133" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E133" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F133" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B134" s="10"/>
       <c r="C134" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E134" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F134" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B135" s="10"/>
       <c r="C135" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E135" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F135" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B136" s="10"/>
       <c r="C136" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E136" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F136" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B137" s="10"/>
       <c r="C137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F137" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B138" s="10"/>
       <c r="C138" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E138" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F138" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -8422,15 +8419,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
@@ -8438,10 +8435,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
   </sheetData>
@@ -8451,10 +8448,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8490,7 +8487,7 @@
       <c r="A3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="27"/>
@@ -8501,7 +8498,7 @@
       <c r="A4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="27"/>
@@ -8512,7 +8509,7 @@
       <c r="A5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="27"/>
@@ -8532,10 +8529,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>55</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -8543,10 +8540,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>56</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>57</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -8554,10 +8551,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -8565,78 +8562,112 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>908</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="7" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="7" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="B17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B1:E1"/>
@@ -8671,53 +8702,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -8745,57 +8776,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -8827,150 +8858,150 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="C4" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -8978,106 +9009,106 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>129</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -9106,164 +9137,164 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
         <v>141</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
         <v>143</v>
       </c>
-      <c r="E2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>144</v>
-      </c>
-      <c r="H2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
         <v>146</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>147</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" t="s">
         <v>148</v>
       </c>
-      <c r="D3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="H3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
         <v>151</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
         <v>152</v>
       </c>
-      <c r="C4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" t="s">
         <v>153</v>
-      </c>
-      <c r="E4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
         <v>155</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
         <v>156</v>
       </c>
-      <c r="C5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
         <v>157</v>
       </c>
-      <c r="E5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="H5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" t="s">
         <v>160</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" t="s">
         <v>161</v>
       </c>
-      <c r="C6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="H6" t="s">
-        <v>145</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -9290,38 +9321,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>166</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" t="s">
         <v>170</v>
-      </c>
-      <c r="D3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/decision_1_v2.xlsx
+++ b/tests/integration_test_files/decision_1_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A5BA4C-579E-9A4E-9C2E-E7B12EC9C18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F25E3A-3FEB-4141-ACAD-A6D18C7D6748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51800" yWindow="500" windowWidth="49320" windowHeight="27260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -780,9 +780,6 @@
     <t>The primary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
   </si>
   <si>
-    <t>Primary Objective</t>
-  </si>
-  <si>
     <t>END1</t>
   </si>
   <si>
@@ -796,9 +793,6 @@
   </si>
   <si>
     <t>The secondary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
-  </si>
-  <si>
-    <t>Secondary Objective</t>
   </si>
   <si>
     <t>END2</t>
@@ -2784,6 +2778,12 @@
   </si>
   <si>
     <t>spare</t>
+  </si>
+  <si>
+    <t>Trial Primary Objective</t>
+  </si>
+  <si>
+    <t>Trial Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -3739,8 +3739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3802,42 +3802,42 @@
         <v>245</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>907</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>246</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>247</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>248</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>251</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>253</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -3846,16 +3846,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3864,16 +3864,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3882,16 +3882,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3900,16 +3900,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3918,16 +3918,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -3936,16 +3936,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3954,16 +3954,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -3972,16 +3972,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -3990,16 +3990,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4008,16 +4008,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -4322,114 +4322,114 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="19" t="s">
+        <v>899</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>901</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>279</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>281</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>238</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" t="s">
         <v>283</v>
-      </c>
-      <c r="B2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C2" t="s">
-        <v>285</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>226</v>
       </c>
       <c r="E2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G2" t="s">
         <v>186</v>
       </c>
       <c r="H2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J4" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D5" t="s">
         <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G5" t="s">
         <v>204</v>
       </c>
       <c r="H5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J5" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
   </sheetData>
@@ -4458,65 +4458,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>299</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" t="s">
         <v>302</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>303</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>304</v>
-      </c>
-      <c r="D2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" t="s">
         <v>307</v>
       </c>
-      <c r="B3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>308</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" t="s">
         <v>309</v>
-      </c>
-      <c r="E3" t="s">
-        <v>310</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4549,28 +4549,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>316</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -4581,22 +4581,22 @@
         <v>103</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -4607,16 +4607,16 @@
         <v>61</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -4627,19 +4627,19 @@
         <v>148</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>322</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -4650,16 +4650,16 @@
         <v>106</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -4667,19 +4667,19 @@
         <v>126</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -4705,19 +4705,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4728,13 +4728,13 @@
         <v>103</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4745,30 +4745,30 @@
         <v>61</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4779,30 +4779,30 @@
         <v>108</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -4825,18 +4825,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2" t="s">
         <v>350</v>
-      </c>
-      <c r="B2" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -4863,707 +4863,707 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="21" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="21" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="21" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="21" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="21" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="21" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="21" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="21" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="21" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="21" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="21" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="21" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="21" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="21" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="21" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="21" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="21" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="21" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="21" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="21" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="21" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="21" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="21" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="21" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="21" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="21" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -5635,7 +5635,7 @@
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
@@ -5673,2644 +5673,2644 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>498</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>499</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="C3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>506</v>
-      </c>
       <c r="E3" t="s">
         <v>169</v>
       </c>
       <c r="F3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="C4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>509</v>
-      </c>
       <c r="E4" t="s">
         <v>169</v>
       </c>
       <c r="F4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="C5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="C5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>512</v>
-      </c>
       <c r="E5" t="s">
         <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="C6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="C6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>515</v>
-      </c>
       <c r="E6" t="s">
         <v>169</v>
       </c>
       <c r="F6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="C7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="C7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>518</v>
-      </c>
       <c r="E7" t="s">
         <v>169</v>
       </c>
       <c r="F7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="C8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="C8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>521</v>
-      </c>
       <c r="E8" t="s">
         <v>169</v>
       </c>
       <c r="F8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>520</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="C9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>524</v>
-      </c>
       <c r="E9" t="s">
         <v>169</v>
       </c>
       <c r="F9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>523</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="C10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="C10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>527</v>
-      </c>
       <c r="E10" t="s">
         <v>169</v>
       </c>
       <c r="F10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>526</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="C11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="C11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>530</v>
-      </c>
       <c r="E11" t="s">
         <v>169</v>
       </c>
       <c r="F11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>529</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="C12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="C12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>533</v>
-      </c>
       <c r="E12" t="s">
         <v>169</v>
       </c>
       <c r="F12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>532</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="C13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="C13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>536</v>
-      </c>
       <c r="E13" t="s">
         <v>169</v>
       </c>
       <c r="F13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>535</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="C14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="C14" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>539</v>
-      </c>
       <c r="E14" t="s">
         <v>169</v>
       </c>
       <c r="F14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>538</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="C15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>542</v>
-      </c>
       <c r="E15" t="s">
         <v>169</v>
       </c>
       <c r="F15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>541</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="C16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>545</v>
-      </c>
       <c r="E16" t="s">
         <v>169</v>
       </c>
       <c r="F16" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>544</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="C17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>548</v>
-      </c>
       <c r="E17" t="s">
         <v>169</v>
       </c>
       <c r="F17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>547</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="C18" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>551</v>
-      </c>
       <c r="E18" t="s">
         <v>169</v>
       </c>
       <c r="F18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>550</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="C19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="C19" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>554</v>
-      </c>
       <c r="E19" t="s">
         <v>169</v>
       </c>
       <c r="F19" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>553</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="C20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="C20" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>557</v>
-      </c>
       <c r="E20" t="s">
         <v>169</v>
       </c>
       <c r="F20" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>556</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>560</v>
-      </c>
       <c r="E21" t="s">
         <v>169</v>
       </c>
       <c r="F21" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>559</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="C22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>563</v>
-      </c>
       <c r="E22" t="s">
         <v>169</v>
       </c>
       <c r="F22" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>562</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="C23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="C23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>566</v>
-      </c>
       <c r="E23" t="s">
         <v>169</v>
       </c>
       <c r="F23" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>565</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="C24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="C24" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>569</v>
-      </c>
       <c r="E24" t="s">
         <v>169</v>
       </c>
       <c r="F24" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>568</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="C25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="C25" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>572</v>
-      </c>
       <c r="E25" t="s">
         <v>169</v>
       </c>
       <c r="F25" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>571</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="C26" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>575</v>
-      </c>
       <c r="E26" t="s">
         <v>169</v>
       </c>
       <c r="F26" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>574</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="C27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="C27" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>578</v>
-      </c>
       <c r="E27" t="s">
         <v>169</v>
       </c>
       <c r="F27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>577</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="C28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>580</v>
-      </c>
-      <c r="C28" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>581</v>
-      </c>
       <c r="E28" t="s">
         <v>169</v>
       </c>
       <c r="F28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>580</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="C29" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>584</v>
-      </c>
       <c r="E29" t="s">
         <v>169</v>
       </c>
       <c r="F29" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>583</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="C30" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>586</v>
-      </c>
-      <c r="C30" t="s">
-        <v>169</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>587</v>
-      </c>
       <c r="E30" t="s">
         <v>169</v>
       </c>
       <c r="F30" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>586</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="C31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>589</v>
-      </c>
-      <c r="C31" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>590</v>
-      </c>
       <c r="E31" t="s">
         <v>169</v>
       </c>
       <c r="F31" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>589</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="C32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="C32" t="s">
-        <v>169</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>593</v>
-      </c>
       <c r="E32" t="s">
         <v>169</v>
       </c>
       <c r="F32" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>592</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="C33" t="s">
-        <v>169</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>596</v>
-      </c>
       <c r="E33" t="s">
         <v>169</v>
       </c>
       <c r="F33" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>595</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="C34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="C34" t="s">
-        <v>169</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>599</v>
-      </c>
       <c r="E34" t="s">
         <v>169</v>
       </c>
       <c r="F34" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>598</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="C35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="C35" t="s">
-        <v>169</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>602</v>
-      </c>
       <c r="E35" t="s">
         <v>169</v>
       </c>
       <c r="F35" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>601</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="C36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="C36" t="s">
-        <v>169</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>605</v>
-      </c>
       <c r="E36" t="s">
         <v>169</v>
       </c>
       <c r="F36" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>604</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="C37" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="C37" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>608</v>
-      </c>
       <c r="E37" t="s">
         <v>169</v>
       </c>
       <c r="F37" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>607</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="C38" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="C38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>611</v>
-      </c>
       <c r="E38" t="s">
         <v>169</v>
       </c>
       <c r="F38" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>610</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="C39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="C39" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>614</v>
-      </c>
       <c r="E39" t="s">
         <v>169</v>
       </c>
       <c r="F39" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>613</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="C40" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="C40" t="s">
-        <v>169</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>617</v>
-      </c>
       <c r="E40" t="s">
         <v>169</v>
       </c>
       <c r="F40" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>616</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="C41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>619</v>
-      </c>
-      <c r="C41" t="s">
-        <v>169</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>620</v>
-      </c>
       <c r="E41" t="s">
         <v>169</v>
       </c>
       <c r="F41" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>619</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="C42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>622</v>
-      </c>
-      <c r="C42" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>623</v>
-      </c>
       <c r="E42" t="s">
         <v>169</v>
       </c>
       <c r="F42" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>622</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="C43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="C43" t="s">
-        <v>169</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>626</v>
-      </c>
       <c r="E43" t="s">
         <v>169</v>
       </c>
       <c r="F43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>625</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="C44" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="C44" t="s">
-        <v>169</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>629</v>
-      </c>
       <c r="E44" t="s">
         <v>169</v>
       </c>
       <c r="F44" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>628</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="C45" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>631</v>
-      </c>
-      <c r="C45" t="s">
-        <v>169</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>632</v>
-      </c>
       <c r="E45" t="s">
         <v>169</v>
       </c>
       <c r="F45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>631</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="C46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>634</v>
-      </c>
-      <c r="C46" t="s">
-        <v>169</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>635</v>
-      </c>
       <c r="E46" t="s">
         <v>169</v>
       </c>
       <c r="F46" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>634</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="C47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>637</v>
-      </c>
-      <c r="C47" t="s">
-        <v>169</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>638</v>
-      </c>
       <c r="E47" t="s">
         <v>169</v>
       </c>
       <c r="F47" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>637</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="C48" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>640</v>
-      </c>
-      <c r="C48" t="s">
-        <v>169</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>641</v>
-      </c>
       <c r="E48" t="s">
         <v>169</v>
       </c>
       <c r="F48" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>640</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="C49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="C49" t="s">
-        <v>169</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>644</v>
-      </c>
       <c r="E49" t="s">
         <v>169</v>
       </c>
       <c r="F49" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>643</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="C50" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="C50" t="s">
-        <v>169</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>647</v>
-      </c>
       <c r="E50" t="s">
         <v>169</v>
       </c>
       <c r="F50" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>646</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="C51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>649</v>
-      </c>
-      <c r="C51" t="s">
-        <v>169</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>650</v>
-      </c>
       <c r="E51" t="s">
         <v>169</v>
       </c>
       <c r="F51" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>649</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="C52" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="C52" t="s">
-        <v>169</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>653</v>
-      </c>
       <c r="E52" t="s">
         <v>169</v>
       </c>
       <c r="F52" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>652</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="C53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="C53" t="s">
-        <v>169</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>656</v>
-      </c>
       <c r="E53" t="s">
         <v>169</v>
       </c>
       <c r="F53" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>655</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="C54" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>658</v>
-      </c>
-      <c r="C54" t="s">
-        <v>169</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>659</v>
-      </c>
       <c r="E54" t="s">
         <v>169</v>
       </c>
       <c r="F54" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>658</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="C55" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>661</v>
-      </c>
-      <c r="C55" t="s">
-        <v>169</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>662</v>
-      </c>
       <c r="E55" t="s">
         <v>169</v>
       </c>
       <c r="F55" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>661</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="C56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="C56" t="s">
-        <v>169</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>665</v>
-      </c>
       <c r="E56" t="s">
         <v>169</v>
       </c>
       <c r="F56" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>664</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="C57" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="C57" t="s">
-        <v>169</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>668</v>
-      </c>
       <c r="E57" t="s">
         <v>169</v>
       </c>
       <c r="F57" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>667</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="C58" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>670</v>
-      </c>
-      <c r="C58" t="s">
-        <v>169</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>671</v>
-      </c>
       <c r="E58" t="s">
         <v>169</v>
       </c>
       <c r="F58" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>670</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="C59" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>673</v>
-      </c>
-      <c r="C59" t="s">
-        <v>169</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>674</v>
-      </c>
       <c r="E59" t="s">
         <v>169</v>
       </c>
       <c r="F59" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>673</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="C60" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>676</v>
-      </c>
-      <c r="C60" t="s">
-        <v>169</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>677</v>
-      </c>
       <c r="E60" t="s">
         <v>169</v>
       </c>
       <c r="F60" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>676</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="C61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>679</v>
-      </c>
-      <c r="C61" t="s">
-        <v>169</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>680</v>
-      </c>
       <c r="E61" t="s">
         <v>169</v>
       </c>
       <c r="F61" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>679</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C62" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>682</v>
-      </c>
-      <c r="C62" t="s">
-        <v>169</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>683</v>
-      </c>
       <c r="E62" t="s">
         <v>169</v>
       </c>
       <c r="F62" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>682</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="C63" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>685</v>
-      </c>
-      <c r="C63" t="s">
-        <v>169</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>686</v>
-      </c>
       <c r="E63" t="s">
         <v>169</v>
       </c>
       <c r="F63" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>685</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="C64" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>688</v>
-      </c>
-      <c r="C64" t="s">
-        <v>169</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>689</v>
-      </c>
       <c r="E64" t="s">
         <v>169</v>
       </c>
       <c r="F64" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>688</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="C65" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="C65" t="s">
-        <v>169</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>692</v>
-      </c>
       <c r="E65" t="s">
         <v>169</v>
       </c>
       <c r="F65" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>691</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="C66" t="s">
+        <v>169</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>694</v>
-      </c>
-      <c r="C66" t="s">
-        <v>169</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>695</v>
-      </c>
       <c r="E66" t="s">
         <v>169</v>
       </c>
       <c r="F66" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>694</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="C67" t="s">
+        <v>169</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>697</v>
-      </c>
-      <c r="C67" t="s">
-        <v>169</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>698</v>
-      </c>
       <c r="E67" t="s">
         <v>169</v>
       </c>
       <c r="F67" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>697</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="C68" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="C68" t="s">
-        <v>169</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>701</v>
-      </c>
       <c r="E68" t="s">
         <v>169</v>
       </c>
       <c r="F68" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>700</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="C69" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>702</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="C69" t="s">
-        <v>169</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>704</v>
-      </c>
       <c r="E69" t="s">
         <v>169</v>
       </c>
       <c r="F69" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>703</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="C70" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>706</v>
-      </c>
-      <c r="C70" t="s">
-        <v>169</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>707</v>
-      </c>
       <c r="E70" t="s">
         <v>169</v>
       </c>
       <c r="F70" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>706</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="C71" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C71" t="s">
-        <v>169</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>710</v>
-      </c>
       <c r="E71" t="s">
         <v>169</v>
       </c>
       <c r="F71" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>709</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="C72" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>712</v>
-      </c>
-      <c r="C72" t="s">
-        <v>169</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>713</v>
-      </c>
       <c r="E72" t="s">
         <v>169</v>
       </c>
       <c r="F72" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>712</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="C73" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>715</v>
-      </c>
-      <c r="C73" t="s">
-        <v>169</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>716</v>
-      </c>
       <c r="E73" t="s">
         <v>169</v>
       </c>
       <c r="F73" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>715</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="C74" t="s">
+        <v>169</v>
+      </c>
+      <c r="D74" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>718</v>
-      </c>
-      <c r="C74" t="s">
-        <v>169</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>719</v>
-      </c>
       <c r="E74" t="s">
         <v>169</v>
       </c>
       <c r="F74" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>718</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="C75" t="s">
+        <v>169</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>721</v>
-      </c>
-      <c r="C75" t="s">
-        <v>169</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>722</v>
-      </c>
       <c r="E75" t="s">
         <v>169</v>
       </c>
       <c r="F75" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>721</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="C76" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>724</v>
-      </c>
-      <c r="C76" t="s">
-        <v>169</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>725</v>
-      </c>
       <c r="E76" t="s">
         <v>169</v>
       </c>
       <c r="F76" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>724</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="C77" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="C77" t="s">
-        <v>169</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>728</v>
-      </c>
       <c r="E77" t="s">
         <v>169</v>
       </c>
       <c r="F77" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>727</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="C78" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>730</v>
-      </c>
-      <c r="C78" t="s">
-        <v>169</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>731</v>
-      </c>
       <c r="E78" t="s">
         <v>169</v>
       </c>
       <c r="F78" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>730</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="C79" t="s">
+        <v>169</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>733</v>
-      </c>
-      <c r="C79" t="s">
-        <v>169</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>734</v>
-      </c>
       <c r="E79" t="s">
         <v>169</v>
       </c>
       <c r="F79" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>733</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="C80" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>736</v>
-      </c>
-      <c r="C80" t="s">
-        <v>169</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>737</v>
-      </c>
       <c r="E80" t="s">
         <v>169</v>
       </c>
       <c r="F80" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>736</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="C81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>739</v>
-      </c>
-      <c r="C81" t="s">
-        <v>169</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>740</v>
-      </c>
       <c r="E81" t="s">
         <v>169</v>
       </c>
       <c r="F81" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>739</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="C82" t="s">
+        <v>169</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>742</v>
-      </c>
-      <c r="C82" t="s">
-        <v>169</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>743</v>
-      </c>
       <c r="E82" t="s">
         <v>169</v>
       </c>
       <c r="F82" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>742</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="C83" t="s">
+        <v>169</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>745</v>
-      </c>
-      <c r="C83" t="s">
-        <v>169</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>746</v>
-      </c>
       <c r="E83" t="s">
         <v>169</v>
       </c>
       <c r="F83" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>745</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="C84" t="s">
+        <v>169</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="B84" s="10" t="s">
-        <v>748</v>
-      </c>
-      <c r="C84" t="s">
-        <v>169</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>749</v>
-      </c>
       <c r="E84" t="s">
         <v>169</v>
       </c>
       <c r="F84" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>748</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="C85" t="s">
+        <v>169</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>751</v>
-      </c>
-      <c r="C85" t="s">
-        <v>169</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>752</v>
-      </c>
       <c r="E85" t="s">
         <v>169</v>
       </c>
       <c r="F85" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>751</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="C86" t="s">
+        <v>169</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>754</v>
-      </c>
-      <c r="C86" t="s">
-        <v>169</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>755</v>
-      </c>
       <c r="E86" t="s">
         <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>754</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="C87" t="s">
+        <v>169</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="B87" s="10" t="s">
-        <v>757</v>
-      </c>
-      <c r="C87" t="s">
-        <v>169</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>758</v>
-      </c>
       <c r="E87" t="s">
         <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>757</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="C88" t="s">
+        <v>169</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>760</v>
-      </c>
-      <c r="C88" t="s">
-        <v>169</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>761</v>
-      </c>
       <c r="E88" t="s">
         <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>760</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="C89" t="s">
+        <v>169</v>
+      </c>
+      <c r="D89" s="9" t="s">
         <v>762</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>763</v>
-      </c>
-      <c r="C89" t="s">
-        <v>169</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>764</v>
-      </c>
       <c r="E89" t="s">
         <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>763</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="C90" t="s">
+        <v>169</v>
+      </c>
+      <c r="D90" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="B90" s="10" t="s">
-        <v>766</v>
-      </c>
-      <c r="C90" t="s">
-        <v>169</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>767</v>
-      </c>
       <c r="E90" t="s">
         <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C91" t="s">
         <v>169</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E91" t="s">
         <v>169</v>
       </c>
       <c r="F91" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>768</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="C92" t="s">
+        <v>169</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>771</v>
-      </c>
-      <c r="C92" t="s">
-        <v>169</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>772</v>
-      </c>
       <c r="E92" t="s">
         <v>169</v>
       </c>
       <c r="F92" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>771</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>772</v>
+      </c>
+      <c r="C93" t="s">
+        <v>169</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="B93" s="10" t="s">
-        <v>774</v>
-      </c>
-      <c r="C93" t="s">
-        <v>169</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>775</v>
-      </c>
       <c r="E93" t="s">
         <v>169</v>
       </c>
       <c r="F93" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>774</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="C94" t="s">
+        <v>169</v>
+      </c>
+      <c r="D94" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>777</v>
-      </c>
-      <c r="C94" t="s">
-        <v>169</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>778</v>
-      </c>
       <c r="E94" t="s">
         <v>169</v>
       </c>
       <c r="F94" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>777</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="C95" t="s">
+        <v>169</v>
+      </c>
+      <c r="D95" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>780</v>
-      </c>
-      <c r="C95" t="s">
-        <v>169</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>781</v>
-      </c>
       <c r="E95" t="s">
         <v>169</v>
       </c>
       <c r="F95" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>780</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="C96" t="s">
+        <v>169</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>783</v>
-      </c>
-      <c r="C96" t="s">
-        <v>169</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>784</v>
-      </c>
       <c r="E96" t="s">
         <v>169</v>
       </c>
       <c r="F96" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>783</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="C97" t="s">
+        <v>169</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="B97" s="10" t="s">
-        <v>786</v>
-      </c>
-      <c r="C97" t="s">
-        <v>169</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>787</v>
-      </c>
       <c r="E97" t="s">
         <v>169</v>
       </c>
       <c r="F97" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>786</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="C98" t="s">
+        <v>169</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>788</v>
       </c>
-      <c r="B98" s="10" t="s">
-        <v>789</v>
-      </c>
-      <c r="C98" t="s">
-        <v>169</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>790</v>
-      </c>
       <c r="E98" t="s">
         <v>169</v>
       </c>
       <c r="F98" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>789</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="C99" t="s">
+        <v>169</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>791</v>
       </c>
-      <c r="B99" s="10" t="s">
-        <v>792</v>
-      </c>
-      <c r="C99" t="s">
-        <v>169</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>793</v>
-      </c>
       <c r="E99" t="s">
         <v>169</v>
       </c>
       <c r="F99" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>792</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="C100" t="s">
+        <v>169</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>794</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>795</v>
-      </c>
-      <c r="C100" t="s">
-        <v>169</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>796</v>
-      </c>
       <c r="E100" t="s">
         <v>169</v>
       </c>
       <c r="F100" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>795</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="C101" t="s">
+        <v>169</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>797</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>798</v>
-      </c>
-      <c r="C101" t="s">
-        <v>169</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>799</v>
-      </c>
       <c r="E101" t="s">
         <v>169</v>
       </c>
       <c r="F101" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>798</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="C102" t="s">
+        <v>169</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>800</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>801</v>
-      </c>
-      <c r="C102" t="s">
-        <v>169</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>802</v>
-      </c>
       <c r="E102" t="s">
         <v>169</v>
       </c>
       <c r="F102" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>801</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="C103" t="s">
+        <v>169</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>803</v>
       </c>
-      <c r="B103" s="10" t="s">
-        <v>804</v>
-      </c>
-      <c r="C103" t="s">
-        <v>169</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>805</v>
-      </c>
       <c r="E103" t="s">
         <v>169</v>
       </c>
       <c r="F103" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>804</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="C104" t="s">
+        <v>169</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>806</v>
       </c>
-      <c r="B104" s="10" t="s">
-        <v>807</v>
-      </c>
-      <c r="C104" t="s">
-        <v>169</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>808</v>
-      </c>
       <c r="E104" t="s">
         <v>169</v>
       </c>
       <c r="F104" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>807</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="C105" t="s">
+        <v>169</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>809</v>
       </c>
-      <c r="B105" s="10" t="s">
-        <v>810</v>
-      </c>
-      <c r="C105" t="s">
-        <v>169</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>811</v>
-      </c>
       <c r="E105" t="s">
         <v>169</v>
       </c>
       <c r="F105" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>810</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="C106" t="s">
+        <v>169</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>812</v>
       </c>
-      <c r="B106" s="10" t="s">
-        <v>813</v>
-      </c>
-      <c r="C106" t="s">
-        <v>169</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>814</v>
-      </c>
       <c r="E106" t="s">
         <v>169</v>
       </c>
       <c r="F106" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>813</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="C107" t="s">
+        <v>169</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>815</v>
       </c>
-      <c r="B107" s="10" t="s">
-        <v>816</v>
-      </c>
-      <c r="C107" t="s">
-        <v>169</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>817</v>
-      </c>
       <c r="E107" t="s">
         <v>169</v>
       </c>
       <c r="F107" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>816</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="C108" t="s">
+        <v>169</v>
+      </c>
+      <c r="D108" s="9" t="s">
         <v>818</v>
       </c>
-      <c r="B108" s="10" t="s">
-        <v>819</v>
-      </c>
-      <c r="C108" t="s">
-        <v>169</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>820</v>
-      </c>
       <c r="E108" t="s">
         <v>169</v>
       </c>
       <c r="F108" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>819</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="C109" t="s">
+        <v>169</v>
+      </c>
+      <c r="D109" s="9" t="s">
         <v>821</v>
       </c>
-      <c r="B109" s="10" t="s">
-        <v>822</v>
-      </c>
-      <c r="C109" t="s">
-        <v>169</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>823</v>
-      </c>
       <c r="E109" t="s">
         <v>169</v>
       </c>
       <c r="F109" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>822</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="C110" t="s">
+        <v>169</v>
+      </c>
+      <c r="D110" s="9" t="s">
         <v>824</v>
       </c>
-      <c r="B110" s="10" t="s">
-        <v>825</v>
-      </c>
-      <c r="C110" t="s">
-        <v>169</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>826</v>
-      </c>
       <c r="E110" t="s">
         <v>169</v>
       </c>
       <c r="F110" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>825</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="C111" t="s">
+        <v>169</v>
+      </c>
+      <c r="D111" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="B111" s="10" t="s">
-        <v>828</v>
-      </c>
-      <c r="C111" t="s">
-        <v>169</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>829</v>
-      </c>
       <c r="E111" t="s">
         <v>169</v>
       </c>
       <c r="F111" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>828</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="C112" t="s">
+        <v>169</v>
+      </c>
+      <c r="D112" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="B112" s="10" t="s">
-        <v>831</v>
-      </c>
-      <c r="C112" t="s">
-        <v>169</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>832</v>
-      </c>
       <c r="E112" t="s">
         <v>169</v>
       </c>
       <c r="F112" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>831</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="C113" t="s">
+        <v>169</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>833</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>834</v>
-      </c>
-      <c r="C113" t="s">
-        <v>169</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>835</v>
-      </c>
       <c r="E113" t="s">
         <v>169</v>
       </c>
       <c r="F113" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>834</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="C114" t="s">
+        <v>169</v>
+      </c>
+      <c r="D114" s="9" t="s">
         <v>836</v>
       </c>
-      <c r="B114" s="10" t="s">
-        <v>837</v>
-      </c>
-      <c r="C114" t="s">
-        <v>169</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>838</v>
-      </c>
       <c r="E114" t="s">
         <v>169</v>
       </c>
       <c r="F114" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>837</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="C115" t="s">
+        <v>169</v>
+      </c>
+      <c r="D115" s="9" t="s">
         <v>839</v>
       </c>
-      <c r="B115" s="10" t="s">
-        <v>840</v>
-      </c>
-      <c r="C115" t="s">
-        <v>169</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>841</v>
-      </c>
       <c r="E115" t="s">
         <v>169</v>
       </c>
       <c r="F115" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>840</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="C116" t="s">
+        <v>169</v>
+      </c>
+      <c r="D116" s="9" t="s">
         <v>842</v>
       </c>
-      <c r="B116" s="10" t="s">
-        <v>843</v>
-      </c>
-      <c r="C116" t="s">
-        <v>169</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>844</v>
-      </c>
       <c r="E116" t="s">
         <v>169</v>
       </c>
       <c r="F116" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>843</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>844</v>
+      </c>
+      <c r="C117" t="s">
+        <v>169</v>
+      </c>
+      <c r="D117" s="9" t="s">
         <v>845</v>
       </c>
-      <c r="B117" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="C117" t="s">
-        <v>169</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>847</v>
-      </c>
       <c r="E117" t="s">
         <v>169</v>
       </c>
       <c r="F117" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>846</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="C118" t="s">
+        <v>169</v>
+      </c>
+      <c r="D118" s="9" t="s">
         <v>848</v>
       </c>
-      <c r="B118" s="10" t="s">
-        <v>849</v>
-      </c>
-      <c r="C118" t="s">
-        <v>169</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>850</v>
-      </c>
       <c r="E118" t="s">
         <v>169</v>
       </c>
       <c r="F118" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>849</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>850</v>
+      </c>
+      <c r="C119" t="s">
+        <v>169</v>
+      </c>
+      <c r="D119" s="9" t="s">
         <v>851</v>
       </c>
-      <c r="B119" s="10" t="s">
-        <v>852</v>
-      </c>
-      <c r="C119" t="s">
-        <v>169</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>853</v>
-      </c>
       <c r="E119" t="s">
         <v>169</v>
       </c>
       <c r="F119" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>852</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="C120" t="s">
+        <v>169</v>
+      </c>
+      <c r="D120" s="9" t="s">
         <v>854</v>
       </c>
-      <c r="B120" s="10" t="s">
-        <v>855</v>
-      </c>
-      <c r="C120" t="s">
-        <v>169</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>856</v>
-      </c>
       <c r="E120" t="s">
         <v>169</v>
       </c>
       <c r="F120" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>855</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="C121" t="s">
+        <v>169</v>
+      </c>
+      <c r="D121" s="9" t="s">
         <v>857</v>
       </c>
-      <c r="B121" s="10" t="s">
-        <v>858</v>
-      </c>
-      <c r="C121" t="s">
-        <v>169</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>859</v>
-      </c>
       <c r="E121" t="s">
         <v>169</v>
       </c>
       <c r="F121" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>858</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="C122" t="s">
+        <v>169</v>
+      </c>
+      <c r="D122" s="9" t="s">
         <v>860</v>
       </c>
-      <c r="B122" s="10" t="s">
-        <v>861</v>
-      </c>
-      <c r="C122" t="s">
-        <v>169</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>862</v>
-      </c>
       <c r="E122" t="s">
         <v>169</v>
       </c>
       <c r="F122" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>861</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="C123" t="s">
+        <v>169</v>
+      </c>
+      <c r="D123" s="9" t="s">
         <v>863</v>
       </c>
-      <c r="B123" s="10" t="s">
-        <v>864</v>
-      </c>
-      <c r="C123" t="s">
-        <v>169</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>865</v>
-      </c>
       <c r="E123" t="s">
         <v>169</v>
       </c>
       <c r="F123" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>864</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="C124" t="s">
+        <v>169</v>
+      </c>
+      <c r="D124" s="9" t="s">
         <v>866</v>
       </c>
-      <c r="B124" s="10" t="s">
-        <v>867</v>
-      </c>
-      <c r="C124" t="s">
-        <v>169</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>868</v>
-      </c>
       <c r="E124" t="s">
         <v>169</v>
       </c>
       <c r="F124" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>867</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="C125" t="s">
+        <v>169</v>
+      </c>
+      <c r="D125" s="9" t="s">
         <v>869</v>
       </c>
-      <c r="B125" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="C125" t="s">
-        <v>169</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>871</v>
-      </c>
       <c r="E125" t="s">
         <v>169</v>
       </c>
       <c r="F125" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>870</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>871</v>
+      </c>
+      <c r="C126" t="s">
+        <v>169</v>
+      </c>
+      <c r="D126" s="9" t="s">
         <v>872</v>
       </c>
-      <c r="B126" s="10" t="s">
-        <v>873</v>
-      </c>
-      <c r="C126" t="s">
-        <v>169</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>874</v>
-      </c>
       <c r="E126" t="s">
         <v>169</v>
       </c>
       <c r="F126" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>873</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="C127" t="s">
+        <v>169</v>
+      </c>
+      <c r="D127" s="9" t="s">
         <v>875</v>
       </c>
-      <c r="B127" s="10" t="s">
-        <v>876</v>
-      </c>
-      <c r="C127" t="s">
-        <v>169</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>877</v>
-      </c>
       <c r="E127" t="s">
         <v>169</v>
       </c>
       <c r="F127" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>876</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="C128" t="s">
+        <v>169</v>
+      </c>
+      <c r="D128" s="9" t="s">
         <v>878</v>
       </c>
-      <c r="B128" s="10" t="s">
-        <v>879</v>
-      </c>
-      <c r="C128" t="s">
-        <v>169</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>880</v>
-      </c>
       <c r="E128" t="s">
         <v>169</v>
       </c>
       <c r="F128" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>879</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="C129" t="s">
+        <v>169</v>
+      </c>
+      <c r="D129" s="9" t="s">
         <v>881</v>
       </c>
-      <c r="B129" s="10" t="s">
-        <v>882</v>
-      </c>
-      <c r="C129" t="s">
-        <v>169</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>883</v>
-      </c>
       <c r="E129" t="s">
         <v>169</v>
       </c>
       <c r="F129" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>882</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="C130" t="s">
+        <v>169</v>
+      </c>
+      <c r="D130" s="9" t="s">
         <v>884</v>
       </c>
-      <c r="B130" s="10" t="s">
-        <v>885</v>
-      </c>
-      <c r="C130" t="s">
-        <v>169</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>886</v>
-      </c>
       <c r="E130" t="s">
         <v>169</v>
       </c>
       <c r="F130" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>885</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>886</v>
+      </c>
+      <c r="C131" t="s">
+        <v>169</v>
+      </c>
+      <c r="D131" s="9" t="s">
         <v>887</v>
       </c>
-      <c r="B131" s="10" t="s">
-        <v>888</v>
-      </c>
-      <c r="C131" t="s">
-        <v>169</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>889</v>
-      </c>
       <c r="E131" t="s">
         <v>169</v>
       </c>
       <c r="F131" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>888</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="C132" t="s">
+        <v>169</v>
+      </c>
+      <c r="D132" s="9" t="s">
         <v>890</v>
       </c>
-      <c r="B132" s="10" t="s">
-        <v>891</v>
-      </c>
-      <c r="C132" t="s">
-        <v>169</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>892</v>
-      </c>
       <c r="E132" t="s">
         <v>169</v>
       </c>
       <c r="F132" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B133" s="10"/>
       <c r="C133" t="s">
@@ -8320,12 +8320,12 @@
         <v>169</v>
       </c>
       <c r="F133" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B134" s="10"/>
       <c r="C134" t="s">
@@ -8335,12 +8335,12 @@
         <v>169</v>
       </c>
       <c r="F134" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B135" s="10"/>
       <c r="C135" t="s">
@@ -8350,12 +8350,12 @@
         <v>169</v>
       </c>
       <c r="F135" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B136" s="10"/>
       <c r="C136" t="s">
@@ -8365,12 +8365,12 @@
         <v>169</v>
       </c>
       <c r="F136" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B137" s="10"/>
       <c r="C137" t="s">
@@ -8380,12 +8380,12 @@
         <v>169</v>
       </c>
       <c r="F137" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B138" s="10"/>
       <c r="C138" t="s">
@@ -8395,7 +8395,7 @@
         <v>169</v>
       </c>
       <c r="F138" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -8419,15 +8419,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
@@ -8435,10 +8435,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B3" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -8450,7 +8450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
@@ -8529,7 +8529,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>54</v>
@@ -8593,7 +8593,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="27"/>
@@ -8665,11 +8665,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
@@ -8678,6 +8673,11 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/integration_test_files/decision_1_v2.xlsx
+++ b/tests/integration_test_files/decision_1_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F25E3A-3FEB-4141-ACAD-A6D18C7D6748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03680127-AE8F-0B42-A745-F8EDB685D7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -146,9 +146,6 @@
     <t>ClinicalTrials.gov</t>
   </si>
   <si>
-    <t>Study Registry</t>
-  </si>
-  <si>
     <t>line|district|city|state|postal_code|GBR</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
   </si>
   <si>
     <t>ACME Pharma</t>
-  </si>
-  <si>
-    <t>Clinical Study Sponsor</t>
   </si>
   <si>
     <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
@@ -2784,6 +2778,12 @@
   </si>
   <si>
     <t>Trial Secondary Objective</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Company</t>
+  </si>
+  <si>
+    <t>Clinical Study Registry</t>
   </si>
 </sst>
 </file>
@@ -3407,176 +3407,176 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>183</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
         <v>186</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>187</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>188</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>190</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="H2" t="s">
         <v>191</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>192</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>193</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>194</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>195</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>196</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>197</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>198</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>199</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>167</v>
+      </c>
+      <c r="R2" t="s">
         <v>200</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="25" t="s">
         <v>201</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>169</v>
-      </c>
-      <c r="R2" t="s">
-        <v>202</v>
-      </c>
-      <c r="S2" s="25" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" t="s">
         <v>204</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H3" t="s">
         <v>205</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I3" t="s">
+        <v>192</v>
+      </c>
+      <c r="J3" t="s">
         <v>206</v>
       </c>
-      <c r="D3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="G3" t="s">
-        <v>192</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>207</v>
       </c>
-      <c r="I3" t="s">
-        <v>194</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>208</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>196</v>
+      </c>
+      <c r="N3" t="s">
+        <v>197</v>
+      </c>
+      <c r="O3" t="s">
+        <v>198</v>
+      </c>
+      <c r="P3" t="s">
         <v>209</v>
       </c>
-      <c r="L3" t="s">
-        <v>210</v>
-      </c>
-      <c r="M3" t="s">
-        <v>198</v>
-      </c>
-      <c r="N3" t="s">
-        <v>199</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>167</v>
+      </c>
+      <c r="R3" t="s">
         <v>200</v>
       </c>
-      <c r="P3" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>169</v>
-      </c>
-      <c r="R3" t="s">
-        <v>202</v>
-      </c>
       <c r="S3" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3604,41 +3604,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" t="s">
         <v>212</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="C2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" t="s">
         <v>216</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="C3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3667,36 +3667,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>222</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3705,29 +3705,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" t="s">
         <v>228</v>
-      </c>
-      <c r="B3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3739,7 +3739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -3759,85 +3759,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>241</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -3846,16 +3846,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3864,16 +3864,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3882,16 +3882,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3900,16 +3900,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3918,16 +3918,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -3936,16 +3936,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3954,16 +3954,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -3972,16 +3972,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -3990,16 +3990,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4008,16 +4008,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -4322,114 +4322,114 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="19" t="s">
+        <v>897</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>899</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>280</v>
-      </c>
       <c r="J1" s="19" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" t="s">
         <v>281</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" t="s">
         <v>282</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>283</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" t="s">
         <v>284</v>
       </c>
-      <c r="F2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I2" t="s">
-        <v>286</v>
-      </c>
       <c r="J2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J3" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J4" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" t="s">
         <v>289</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>290</v>
       </c>
-      <c r="C5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D5" t="s">
-        <v>226</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I5" t="s">
         <v>291</v>
       </c>
-      <c r="F5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G5" t="s">
-        <v>204</v>
-      </c>
-      <c r="H5" t="s">
-        <v>251</v>
-      </c>
-      <c r="I5" t="s">
-        <v>293</v>
-      </c>
       <c r="J5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
   </sheetData>
@@ -4458,65 +4458,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>297</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" t="s">
         <v>300</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>301</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>302</v>
-      </c>
-      <c r="D2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" t="s">
         <v>305</v>
       </c>
-      <c r="B3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>306</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" t="s">
         <v>307</v>
-      </c>
-      <c r="E3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4549,137 +4549,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>314</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>320</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -4705,104 +4705,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -4825,18 +4825,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B2" t="s">
         <v>348</v>
-      </c>
-      <c r="B2" t="s">
-        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -4863,707 +4863,707 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="21" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="21" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="21" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="21" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="21" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="21" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="21" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="21" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="21" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="21" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="21" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="21" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="21" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="21" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="21" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="21" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="21" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="21" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="21" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="21" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="21" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="21" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="21" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="21" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="21" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="21" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="21" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -5575,8 +5575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5598,7 +5598,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>30</v>
@@ -5621,30 +5621,30 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
+        <v>908</v>
+      </c>
+      <c r="F2" t="s">
         <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
+        <v>898</v>
+      </c>
+      <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
-        <v>900</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>907</v>
+      </c>
+      <c r="F3" t="s">
         <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -5673,2729 +5673,2729 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>495</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>496</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="C3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>504</v>
-      </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="C4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>507</v>
-      </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="C5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>510</v>
-      </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>509</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="C6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>513</v>
-      </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>512</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="C7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>516</v>
-      </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>515</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="C8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="C8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>519</v>
-      </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="C9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="C9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>522</v>
-      </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="C10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>525</v>
-      </c>
       <c r="E10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>524</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="C11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>528</v>
-      </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>527</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="C12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="C12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>531</v>
-      </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>530</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="C13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="C13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>534</v>
-      </c>
       <c r="E13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>533</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="C14" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>537</v>
-      </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>536</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="C15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>540</v>
-      </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>539</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="C16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="C16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>543</v>
-      </c>
       <c r="E16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>542</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="C17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>546</v>
-      </c>
       <c r="E17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>545</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="C18" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>549</v>
-      </c>
       <c r="E18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>548</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="C19" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>552</v>
-      </c>
       <c r="E19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F19" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>551</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="C20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="C20" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>555</v>
-      </c>
       <c r="E20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>554</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="C21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="C21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>558</v>
-      </c>
       <c r="E21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F21" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>557</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="C22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>561</v>
-      </c>
       <c r="E22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F22" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>560</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="C23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>564</v>
-      </c>
       <c r="E23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F23" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>563</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="C24" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>567</v>
-      </c>
       <c r="E24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F24" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>566</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="C25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="C25" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>570</v>
-      </c>
       <c r="E25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F25" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>569</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="C26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="C26" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>573</v>
-      </c>
       <c r="E26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F26" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>572</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="C27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="C27" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>576</v>
-      </c>
       <c r="E27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F27" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>575</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="C28" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>579</v>
-      </c>
       <c r="E28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F28" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>578</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="C29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="C29" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>582</v>
-      </c>
       <c r="E29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F29" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>581</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="C30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="C30" t="s">
-        <v>169</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>585</v>
-      </c>
       <c r="E30" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F30" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>584</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="C31" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>588</v>
-      </c>
       <c r="E31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F31" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>587</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="C32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="C32" t="s">
-        <v>169</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>591</v>
-      </c>
       <c r="E32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>590</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="C33" t="s">
-        <v>169</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>594</v>
-      </c>
       <c r="E33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F33" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>593</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="C34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="C34" t="s">
-        <v>169</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>597</v>
-      </c>
       <c r="E34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F34" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>596</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="C35" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>599</v>
-      </c>
-      <c r="C35" t="s">
-        <v>169</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>600</v>
-      </c>
       <c r="E35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F35" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>599</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="C36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>602</v>
-      </c>
-      <c r="C36" t="s">
-        <v>169</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>603</v>
-      </c>
       <c r="E36" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F36" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>602</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="C37" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>606</v>
-      </c>
       <c r="E37" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F37" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>605</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="C38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>608</v>
-      </c>
-      <c r="C38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>609</v>
-      </c>
       <c r="E38" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F38" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>608</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="C39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>611</v>
-      </c>
-      <c r="C39" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>612</v>
-      </c>
       <c r="E39" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F39" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>611</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="C40" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>614</v>
-      </c>
-      <c r="C40" t="s">
-        <v>169</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>615</v>
-      </c>
       <c r="E40" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F40" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>614</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="C41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>617</v>
-      </c>
-      <c r="C41" t="s">
-        <v>169</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>618</v>
-      </c>
       <c r="E41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F41" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>617</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="C42" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>620</v>
-      </c>
-      <c r="C42" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>621</v>
-      </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F42" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>620</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="C43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="C43" t="s">
-        <v>169</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>624</v>
-      </c>
       <c r="E43" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F43" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>623</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="C44" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="C44" t="s">
-        <v>169</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>627</v>
-      </c>
       <c r="E44" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F44" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>626</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="C45" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>629</v>
-      </c>
-      <c r="C45" t="s">
-        <v>169</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>630</v>
-      </c>
       <c r="E45" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F45" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>629</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="C46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>632</v>
-      </c>
-      <c r="C46" t="s">
-        <v>169</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>633</v>
-      </c>
       <c r="E46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F46" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>632</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="C47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>635</v>
-      </c>
-      <c r="C47" t="s">
-        <v>169</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>636</v>
-      </c>
       <c r="E47" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F47" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>635</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="C48" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="C48" t="s">
-        <v>169</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>639</v>
-      </c>
       <c r="E48" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F48" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>638</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="C49" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>641</v>
-      </c>
-      <c r="C49" t="s">
-        <v>169</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>642</v>
-      </c>
       <c r="E49" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F49" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>641</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="C50" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="C50" t="s">
-        <v>169</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>645</v>
-      </c>
       <c r="E50" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F50" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>644</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="C51" t="s">
-        <v>169</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>648</v>
-      </c>
       <c r="E51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F51" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>647</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="C52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>649</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>650</v>
-      </c>
-      <c r="C52" t="s">
-        <v>169</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>651</v>
-      </c>
       <c r="E52" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F52" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>650</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="C53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="C53" t="s">
-        <v>169</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>654</v>
-      </c>
       <c r="E53" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F53" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>653</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="C54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="C54" t="s">
-        <v>169</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>657</v>
-      </c>
       <c r="E54" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F54" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>656</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="C55" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>659</v>
-      </c>
-      <c r="C55" t="s">
-        <v>169</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>660</v>
-      </c>
       <c r="E55" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F55" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>659</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="C56" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>662</v>
-      </c>
-      <c r="C56" t="s">
-        <v>169</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>663</v>
-      </c>
       <c r="E56" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F56" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>662</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="C57" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>665</v>
-      </c>
-      <c r="C57" t="s">
-        <v>169</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>666</v>
-      </c>
       <c r="E57" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F57" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>665</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="C58" t="s">
+        <v>167</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="C58" t="s">
-        <v>169</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>669</v>
-      </c>
       <c r="E58" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F58" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>668</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="C59" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>671</v>
-      </c>
-      <c r="C59" t="s">
-        <v>169</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>672</v>
-      </c>
       <c r="E59" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F59" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>671</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="C60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="C60" t="s">
-        <v>169</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>675</v>
-      </c>
       <c r="E60" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F60" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>674</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="C61" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>677</v>
-      </c>
-      <c r="C61" t="s">
-        <v>169</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>678</v>
-      </c>
       <c r="E61" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F61" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>677</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="C62" t="s">
+        <v>167</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="C62" t="s">
-        <v>169</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>681</v>
-      </c>
       <c r="E62" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F62" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>680</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="C63" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>683</v>
-      </c>
-      <c r="C63" t="s">
-        <v>169</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>684</v>
-      </c>
       <c r="E63" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F63" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>683</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="C64" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>686</v>
-      </c>
-      <c r="C64" t="s">
-        <v>169</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>687</v>
-      </c>
       <c r="E64" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F64" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>686</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="C65" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="C65" t="s">
-        <v>169</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>690</v>
-      </c>
       <c r="E65" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F65" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>689</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="C66" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="C66" t="s">
-        <v>169</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>693</v>
-      </c>
       <c r="E66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F66" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>692</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="C67" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="C67" t="s">
-        <v>169</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>696</v>
-      </c>
       <c r="E67" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F67" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>695</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="C68" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>698</v>
-      </c>
-      <c r="C68" t="s">
-        <v>169</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>699</v>
-      </c>
       <c r="E68" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F68" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>698</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="C69" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>701</v>
-      </c>
-      <c r="C69" t="s">
-        <v>169</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>702</v>
-      </c>
       <c r="E69" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F69" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>701</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="C70" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="C70" t="s">
-        <v>169</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>705</v>
-      </c>
       <c r="E70" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F70" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>704</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="C71" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>707</v>
-      </c>
-      <c r="C71" t="s">
-        <v>169</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>708</v>
-      </c>
       <c r="E71" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F71" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>707</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="C72" t="s">
+        <v>167</v>
+      </c>
+      <c r="D72" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>710</v>
-      </c>
-      <c r="C72" t="s">
-        <v>169</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>711</v>
-      </c>
       <c r="E72" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F72" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>710</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="C73" t="s">
+        <v>167</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>713</v>
-      </c>
-      <c r="C73" t="s">
-        <v>169</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>714</v>
-      </c>
       <c r="E73" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F73" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>713</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="C74" t="s">
+        <v>167</v>
+      </c>
+      <c r="D74" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>716</v>
-      </c>
-      <c r="C74" t="s">
-        <v>169</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>717</v>
-      </c>
       <c r="E74" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F74" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>716</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="C75" t="s">
+        <v>167</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>719</v>
-      </c>
-      <c r="C75" t="s">
-        <v>169</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>720</v>
-      </c>
       <c r="E75" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F75" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>719</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="C76" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>722</v>
-      </c>
-      <c r="C76" t="s">
-        <v>169</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>723</v>
-      </c>
       <c r="E76" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F76" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>722</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="C77" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>725</v>
-      </c>
-      <c r="C77" t="s">
-        <v>169</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>726</v>
-      </c>
       <c r="E77" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F77" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>725</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="C78" t="s">
+        <v>167</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>728</v>
-      </c>
-      <c r="C78" t="s">
-        <v>169</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>729</v>
-      </c>
       <c r="E78" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F78" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>728</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="C79" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>731</v>
-      </c>
-      <c r="C79" t="s">
-        <v>169</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>732</v>
-      </c>
       <c r="E79" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F79" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>731</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="C80" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>734</v>
-      </c>
-      <c r="C80" t="s">
-        <v>169</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>735</v>
-      </c>
       <c r="E80" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F80" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>734</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="C81" t="s">
+        <v>167</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>736</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="C81" t="s">
-        <v>169</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>738</v>
-      </c>
       <c r="E81" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F81" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>737</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="C82" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>740</v>
-      </c>
-      <c r="C82" t="s">
-        <v>169</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>741</v>
-      </c>
       <c r="E82" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F82" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>740</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="C83" t="s">
+        <v>167</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>743</v>
-      </c>
-      <c r="C83" t="s">
-        <v>169</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>744</v>
-      </c>
       <c r="E83" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F83" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>743</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="C84" t="s">
+        <v>167</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="B84" s="10" t="s">
-        <v>746</v>
-      </c>
-      <c r="C84" t="s">
-        <v>169</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>747</v>
-      </c>
       <c r="E84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F84" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>746</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="C85" t="s">
+        <v>167</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>749</v>
-      </c>
-      <c r="C85" t="s">
-        <v>169</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>750</v>
-      </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>749</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="C86" t="s">
+        <v>167</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>752</v>
-      </c>
-      <c r="C86" t="s">
-        <v>169</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>753</v>
-      </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>752</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="C87" t="s">
+        <v>167</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="B87" s="10" t="s">
-        <v>755</v>
-      </c>
-      <c r="C87" t="s">
-        <v>169</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>756</v>
-      </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>755</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="C88" t="s">
+        <v>167</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>757</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>758</v>
-      </c>
-      <c r="C88" t="s">
-        <v>169</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>759</v>
-      </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>758</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="C89" t="s">
+        <v>167</v>
+      </c>
+      <c r="D89" s="9" t="s">
         <v>760</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>761</v>
-      </c>
-      <c r="C89" t="s">
-        <v>169</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>762</v>
-      </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F89" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>761</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="C90" t="s">
+        <v>167</v>
+      </c>
+      <c r="D90" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="B90" s="10" t="s">
-        <v>764</v>
-      </c>
-      <c r="C90" t="s">
-        <v>169</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>765</v>
-      </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F90" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C91" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>766</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="C92" t="s">
+        <v>167</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>768</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>769</v>
-      </c>
-      <c r="C92" t="s">
-        <v>169</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>770</v>
-      </c>
       <c r="E92" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F92" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>769</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="C93" t="s">
+        <v>167</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="B93" s="10" t="s">
-        <v>772</v>
-      </c>
-      <c r="C93" t="s">
-        <v>169</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>773</v>
-      </c>
       <c r="E93" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F93" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>772</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="C94" t="s">
+        <v>167</v>
+      </c>
+      <c r="D94" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>775</v>
-      </c>
-      <c r="C94" t="s">
-        <v>169</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>776</v>
-      </c>
       <c r="E94" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F94" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>775</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="C95" t="s">
+        <v>167</v>
+      </c>
+      <c r="D95" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>778</v>
-      </c>
-      <c r="C95" t="s">
-        <v>169</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>779</v>
-      </c>
       <c r="E95" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F95" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>778</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="C96" t="s">
+        <v>167</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>780</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>781</v>
-      </c>
-      <c r="C96" t="s">
-        <v>169</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>782</v>
-      </c>
       <c r="E96" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F96" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>781</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="C97" t="s">
+        <v>167</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>783</v>
       </c>
-      <c r="B97" s="10" t="s">
-        <v>784</v>
-      </c>
-      <c r="C97" t="s">
-        <v>169</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>785</v>
-      </c>
       <c r="E97" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F97" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>784</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="C98" t="s">
+        <v>167</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>786</v>
       </c>
-      <c r="B98" s="10" t="s">
-        <v>787</v>
-      </c>
-      <c r="C98" t="s">
-        <v>169</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>788</v>
-      </c>
       <c r="E98" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F98" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>787</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>788</v>
+      </c>
+      <c r="C99" t="s">
+        <v>167</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="B99" s="10" t="s">
-        <v>790</v>
-      </c>
-      <c r="C99" t="s">
-        <v>169</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>791</v>
-      </c>
       <c r="E99" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F99" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>790</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="C100" t="s">
+        <v>167</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>792</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>793</v>
-      </c>
-      <c r="C100" t="s">
-        <v>169</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>794</v>
-      </c>
       <c r="E100" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F100" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>793</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="C101" t="s">
+        <v>167</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>795</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>796</v>
-      </c>
-      <c r="C101" t="s">
-        <v>169</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>797</v>
-      </c>
       <c r="E101" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F101" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>796</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>797</v>
+      </c>
+      <c r="C102" t="s">
+        <v>167</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>798</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>799</v>
-      </c>
-      <c r="C102" t="s">
-        <v>169</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>800</v>
-      </c>
       <c r="E102" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F102" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>799</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="C103" t="s">
+        <v>167</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>801</v>
       </c>
-      <c r="B103" s="10" t="s">
-        <v>802</v>
-      </c>
-      <c r="C103" t="s">
-        <v>169</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>803</v>
-      </c>
       <c r="E103" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F103" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>802</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="C104" t="s">
+        <v>167</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="B104" s="10" t="s">
-        <v>805</v>
-      </c>
-      <c r="C104" t="s">
-        <v>169</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>806</v>
-      </c>
       <c r="E104" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F104" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>805</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="C105" t="s">
+        <v>167</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>807</v>
       </c>
-      <c r="B105" s="10" t="s">
-        <v>808</v>
-      </c>
-      <c r="C105" t="s">
-        <v>169</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>809</v>
-      </c>
       <c r="E105" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F105" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>808</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="C106" t="s">
+        <v>167</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>810</v>
       </c>
-      <c r="B106" s="10" t="s">
-        <v>811</v>
-      </c>
-      <c r="C106" t="s">
-        <v>169</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>812</v>
-      </c>
       <c r="E106" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F106" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>811</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="C107" t="s">
+        <v>167</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>813</v>
       </c>
-      <c r="B107" s="10" t="s">
-        <v>814</v>
-      </c>
-      <c r="C107" t="s">
-        <v>169</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>815</v>
-      </c>
       <c r="E107" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F107" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>814</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>815</v>
+      </c>
+      <c r="C108" t="s">
+        <v>167</v>
+      </c>
+      <c r="D108" s="9" t="s">
         <v>816</v>
       </c>
-      <c r="B108" s="10" t="s">
-        <v>817</v>
-      </c>
-      <c r="C108" t="s">
-        <v>169</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>818</v>
-      </c>
       <c r="E108" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F108" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>817</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="C109" t="s">
+        <v>167</v>
+      </c>
+      <c r="D109" s="9" t="s">
         <v>819</v>
       </c>
-      <c r="B109" s="10" t="s">
-        <v>820</v>
-      </c>
-      <c r="C109" t="s">
-        <v>169</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>821</v>
-      </c>
       <c r="E109" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F109" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>820</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="C110" t="s">
+        <v>167</v>
+      </c>
+      <c r="D110" s="9" t="s">
         <v>822</v>
       </c>
-      <c r="B110" s="10" t="s">
-        <v>823</v>
-      </c>
-      <c r="C110" t="s">
-        <v>169</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>824</v>
-      </c>
       <c r="E110" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F110" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>823</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="C111" t="s">
+        <v>167</v>
+      </c>
+      <c r="D111" s="9" t="s">
         <v>825</v>
       </c>
-      <c r="B111" s="10" t="s">
-        <v>826</v>
-      </c>
-      <c r="C111" t="s">
-        <v>169</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>827</v>
-      </c>
       <c r="E111" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F111" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>826</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="C112" t="s">
+        <v>167</v>
+      </c>
+      <c r="D112" s="9" t="s">
         <v>828</v>
       </c>
-      <c r="B112" s="10" t="s">
-        <v>829</v>
-      </c>
-      <c r="C112" t="s">
-        <v>169</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>830</v>
-      </c>
       <c r="E112" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F112" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>829</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="C113" t="s">
+        <v>167</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>831</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>832</v>
-      </c>
-      <c r="C113" t="s">
-        <v>169</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>833</v>
-      </c>
       <c r="E113" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F113" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>832</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="C114" t="s">
+        <v>167</v>
+      </c>
+      <c r="D114" s="9" t="s">
         <v>834</v>
       </c>
-      <c r="B114" s="10" t="s">
-        <v>835</v>
-      </c>
-      <c r="C114" t="s">
-        <v>169</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>836</v>
-      </c>
       <c r="E114" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F114" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>835</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="C115" t="s">
+        <v>167</v>
+      </c>
+      <c r="D115" s="9" t="s">
         <v>837</v>
       </c>
-      <c r="B115" s="10" t="s">
-        <v>838</v>
-      </c>
-      <c r="C115" t="s">
-        <v>169</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>839</v>
-      </c>
       <c r="E115" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F115" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>838</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="C116" t="s">
+        <v>167</v>
+      </c>
+      <c r="D116" s="9" t="s">
         <v>840</v>
       </c>
-      <c r="B116" s="10" t="s">
-        <v>841</v>
-      </c>
-      <c r="C116" t="s">
-        <v>169</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>842</v>
-      </c>
       <c r="E116" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F116" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>841</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="C117" t="s">
+        <v>167</v>
+      </c>
+      <c r="D117" s="9" t="s">
         <v>843</v>
       </c>
-      <c r="B117" s="10" t="s">
-        <v>844</v>
-      </c>
-      <c r="C117" t="s">
-        <v>169</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>845</v>
-      </c>
       <c r="E117" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F117" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>844</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="C118" t="s">
+        <v>167</v>
+      </c>
+      <c r="D118" s="9" t="s">
         <v>846</v>
       </c>
-      <c r="B118" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="C118" t="s">
-        <v>169</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>848</v>
-      </c>
       <c r="E118" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F118" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>847</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="C119" t="s">
+        <v>167</v>
+      </c>
+      <c r="D119" s="9" t="s">
         <v>849</v>
       </c>
-      <c r="B119" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="C119" t="s">
-        <v>169</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>851</v>
-      </c>
       <c r="E119" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F119" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>850</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="C120" t="s">
+        <v>167</v>
+      </c>
+      <c r="D120" s="9" t="s">
         <v>852</v>
       </c>
-      <c r="B120" s="10" t="s">
-        <v>853</v>
-      </c>
-      <c r="C120" t="s">
-        <v>169</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>854</v>
-      </c>
       <c r="E120" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F120" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>853</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="C121" t="s">
+        <v>167</v>
+      </c>
+      <c r="D121" s="9" t="s">
         <v>855</v>
       </c>
-      <c r="B121" s="10" t="s">
-        <v>856</v>
-      </c>
-      <c r="C121" t="s">
-        <v>169</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>857</v>
-      </c>
       <c r="E121" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F121" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>856</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="C122" t="s">
+        <v>167</v>
+      </c>
+      <c r="D122" s="9" t="s">
         <v>858</v>
       </c>
-      <c r="B122" s="10" t="s">
-        <v>859</v>
-      </c>
-      <c r="C122" t="s">
-        <v>169</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>860</v>
-      </c>
       <c r="E122" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F122" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>859</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="C123" t="s">
+        <v>167</v>
+      </c>
+      <c r="D123" s="9" t="s">
         <v>861</v>
       </c>
-      <c r="B123" s="10" t="s">
-        <v>862</v>
-      </c>
-      <c r="C123" t="s">
-        <v>169</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>863</v>
-      </c>
       <c r="E123" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F123" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>862</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="C124" t="s">
+        <v>167</v>
+      </c>
+      <c r="D124" s="9" t="s">
         <v>864</v>
       </c>
-      <c r="B124" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="C124" t="s">
-        <v>169</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>866</v>
-      </c>
       <c r="E124" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F124" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>865</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="C125" t="s">
+        <v>167</v>
+      </c>
+      <c r="D125" s="9" t="s">
         <v>867</v>
       </c>
-      <c r="B125" s="10" t="s">
-        <v>868</v>
-      </c>
-      <c r="C125" t="s">
-        <v>169</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>869</v>
-      </c>
       <c r="E125" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F125" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>868</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="C126" t="s">
+        <v>167</v>
+      </c>
+      <c r="D126" s="9" t="s">
         <v>870</v>
       </c>
-      <c r="B126" s="10" t="s">
-        <v>871</v>
-      </c>
-      <c r="C126" t="s">
-        <v>169</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>872</v>
-      </c>
       <c r="E126" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F126" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>871</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="C127" t="s">
+        <v>167</v>
+      </c>
+      <c r="D127" s="9" t="s">
         <v>873</v>
       </c>
-      <c r="B127" s="10" t="s">
-        <v>874</v>
-      </c>
-      <c r="C127" t="s">
-        <v>169</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>875</v>
-      </c>
       <c r="E127" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F127" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>874</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="C128" t="s">
+        <v>167</v>
+      </c>
+      <c r="D128" s="9" t="s">
         <v>876</v>
       </c>
-      <c r="B128" s="10" t="s">
-        <v>877</v>
-      </c>
-      <c r="C128" t="s">
-        <v>169</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>878</v>
-      </c>
       <c r="E128" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F128" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>877</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="C129" t="s">
+        <v>167</v>
+      </c>
+      <c r="D129" s="9" t="s">
         <v>879</v>
       </c>
-      <c r="B129" s="10" t="s">
-        <v>880</v>
-      </c>
-      <c r="C129" t="s">
-        <v>169</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>881</v>
-      </c>
       <c r="E129" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F129" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>880</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="C130" t="s">
+        <v>167</v>
+      </c>
+      <c r="D130" s="9" t="s">
         <v>882</v>
       </c>
-      <c r="B130" s="10" t="s">
-        <v>883</v>
-      </c>
-      <c r="C130" t="s">
-        <v>169</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>884</v>
-      </c>
       <c r="E130" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F130" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>883</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="C131" t="s">
+        <v>167</v>
+      </c>
+      <c r="D131" s="9" t="s">
         <v>885</v>
       </c>
-      <c r="B131" s="10" t="s">
-        <v>886</v>
-      </c>
-      <c r="C131" t="s">
-        <v>169</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>887</v>
-      </c>
       <c r="E131" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F131" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>886</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>887</v>
+      </c>
+      <c r="C132" t="s">
+        <v>167</v>
+      </c>
+      <c r="D132" s="9" t="s">
         <v>888</v>
       </c>
-      <c r="B132" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="C132" t="s">
-        <v>169</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>890</v>
-      </c>
       <c r="E132" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F132" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B133" s="10"/>
       <c r="C133" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E133" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F133" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B134" s="10"/>
       <c r="C134" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E134" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F134" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B135" s="10"/>
       <c r="C135" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E135" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F135" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B136" s="10"/>
       <c r="C136" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E136" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F136" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B137" s="10"/>
       <c r="C137" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E137" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F137" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B138" s="10"/>
       <c r="C138" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E138" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F138" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -8419,15 +8419,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
@@ -8435,10 +8435,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
   </sheetData>
@@ -8463,10 +8463,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -8474,10 +8474,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -8485,10 +8485,10 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -8496,10 +8496,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -8507,10 +8507,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -8518,10 +8518,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -8529,10 +8529,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -8540,10 +8540,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -8551,10 +8551,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -8562,7 +8562,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="27"/>
@@ -8593,7 +8593,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="27"/>
@@ -8602,53 +8602,53 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -8665,6 +8665,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
@@ -8673,11 +8678,6 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8702,53 +8702,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -8776,57 +8776,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -8858,150 +8858,150 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="D2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="E2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="C4" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -9009,106 +9009,106 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>127</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -9137,164 +9137,164 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="E1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" t="s">
         <v>141</v>
       </c>
-      <c r="C2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="H2" t="s">
         <v>142</v>
-      </c>
-      <c r="E2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
         <v>145</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" t="s">
         <v>146</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="D3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
         <v>150</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
         <v>151</v>
-      </c>
-      <c r="C4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
         <v>154</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" t="s">
         <v>155</v>
       </c>
-      <c r="C5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="H5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="E5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" t="s">
         <v>159</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="C6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -9321,38 +9321,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>164</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" t="s">
         <v>168</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
